--- a/ep/ep/export/flourish/Hungary_group_name.xlsx
+++ b/ep/ep/export/flourish/Hungary_group_name.xlsx
@@ -79,16 +79,16 @@
     <t>ECR</t>
   </si>
   <si>
+    <t>EPP</t>
+  </si>
+  <si>
+    <t>Greens</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>PPE</t>
-  </si>
-  <si>
     <t>S&amp;D</t>
-  </si>
-  <si>
-    <t>Verts/ALE</t>
   </si>
   <si>
     <t>Alexandra DOBOLYI</t>
@@ -2434,28 +2434,28 @@
         <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="O56">
-        <v>0.366</v>
-      </c>
-      <c r="P56">
-        <v>0.475</v>
-      </c>
-      <c r="Q56">
-        <v>0.473</v>
-      </c>
-      <c r="R56">
-        <v>0.466</v>
-      </c>
-      <c r="S56">
-        <v>0.483</v>
-      </c>
-      <c r="T56">
-        <v>0.509</v>
+        <v>76</v>
+      </c>
+      <c r="E56">
+        <v>0.626</v>
+      </c>
+      <c r="F56">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="G56">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="H56">
+        <v>0.607</v>
+      </c>
+      <c r="I56">
+        <v>0.833</v>
+      </c>
+      <c r="J56">
+        <v>0.753</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -2466,28 +2466,28 @@
         <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O57">
-        <v>0.37</v>
+        <v>0.991</v>
       </c>
       <c r="P57">
-        <v>0.474</v>
+        <v>0.988</v>
       </c>
       <c r="Q57">
-        <v>0.474</v>
+        <v>0.991</v>
       </c>
       <c r="R57">
-        <v>0.461</v>
+        <v>0.993</v>
       </c>
       <c r="S57">
-        <v>0.486</v>
+        <v>0.992</v>
       </c>
       <c r="T57">
-        <v>0.506</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -2498,43 +2498,28 @@
         <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J58">
-        <v>0.445</v>
-      </c>
-      <c r="K58">
-        <v>0.598</v>
-      </c>
-      <c r="L58">
-        <v>0.659</v>
-      </c>
-      <c r="M58">
-        <v>0.855</v>
-      </c>
-      <c r="N58">
-        <v>0.6820000000000001</v>
+        <v>118</v>
       </c>
       <c r="O58">
-        <v>0.53</v>
+        <v>0.996</v>
       </c>
       <c r="P58">
-        <v>0.476</v>
+        <v>0.991</v>
       </c>
       <c r="Q58">
-        <v>0.458</v>
+        <v>0.991</v>
       </c>
       <c r="R58">
-        <v>0.488</v>
+        <v>0.992</v>
       </c>
       <c r="S58">
-        <v>0.548</v>
+        <v>0.989</v>
       </c>
       <c r="T58">
-        <v>0.598</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -2545,28 +2530,58 @@
         <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>119</v>
+        <v>77</v>
+      </c>
+      <c r="E59">
+        <v>0.97</v>
+      </c>
+      <c r="F59">
+        <v>0.987</v>
+      </c>
+      <c r="G59">
+        <v>0.988</v>
+      </c>
+      <c r="H59">
+        <v>0.963</v>
+      </c>
+      <c r="I59">
+        <v>0.985</v>
+      </c>
+      <c r="J59">
+        <v>0.984</v>
+      </c>
+      <c r="K59">
+        <v>0.98</v>
+      </c>
+      <c r="L59">
+        <v>0.989</v>
+      </c>
+      <c r="M59">
+        <v>0.989</v>
+      </c>
+      <c r="N59">
+        <v>0.992</v>
       </c>
       <c r="O59">
-        <v>0.572</v>
+        <v>0.982</v>
       </c>
       <c r="P59">
-        <v>0.617</v>
+        <v>0.989</v>
       </c>
       <c r="Q59">
-        <v>0.631</v>
+        <v>0.991</v>
       </c>
       <c r="R59">
-        <v>0.609</v>
+        <v>0.992</v>
       </c>
       <c r="S59">
-        <v>0.517</v>
+        <v>0.991</v>
       </c>
       <c r="T59">
-        <v>0.6870000000000001</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -2577,28 +2592,22 @@
         <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="G60">
+        <v>0.991</v>
+      </c>
+      <c r="H60">
+        <v>0.968</v>
+      </c>
+      <c r="I60">
+        <v>0.984</v>
       </c>
       <c r="J60">
-        <v>0.511</v>
-      </c>
-      <c r="K60">
-        <v>0.581</v>
-      </c>
-      <c r="L60">
-        <v>0.672</v>
-      </c>
-      <c r="M60">
-        <v>0.864</v>
-      </c>
-      <c r="N60">
-        <v>0.674</v>
-      </c>
-      <c r="O60">
-        <v>0.592</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -2609,40 +2618,28 @@
         <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K61">
-        <v>0.979</v>
-      </c>
-      <c r="L61">
-        <v>0.982</v>
-      </c>
-      <c r="M61">
-        <v>0.917</v>
-      </c>
-      <c r="N61">
-        <v>0.915</v>
+        <v>119</v>
       </c>
       <c r="O61">
-        <v>0.896</v>
+        <v>0.577</v>
       </c>
       <c r="P61">
-        <v>0.994</v>
+        <v>0.537</v>
       </c>
       <c r="Q61">
-        <v>0.991</v>
+        <v>0.528</v>
       </c>
       <c r="R61">
-        <v>0.99</v>
+        <v>0.579</v>
       </c>
       <c r="S61">
-        <v>0.988</v>
+        <v>0.499</v>
       </c>
       <c r="T61">
-        <v>0.997</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -2653,28 +2650,43 @@
         <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>120</v>
+        <v>79</v>
+      </c>
+      <c r="E62">
+        <v>0.953</v>
+      </c>
+      <c r="F62">
+        <v>0.981</v>
+      </c>
+      <c r="G62">
+        <v>0.988</v>
+      </c>
+      <c r="H62">
+        <v>0.959</v>
+      </c>
+      <c r="I62">
+        <v>0.982</v>
+      </c>
+      <c r="J62">
+        <v>0.976</v>
+      </c>
+      <c r="K62">
+        <v>0.981</v>
+      </c>
+      <c r="L62">
+        <v>0.991</v>
+      </c>
+      <c r="M62">
+        <v>0.986</v>
+      </c>
+      <c r="N62">
+        <v>0.98</v>
       </c>
       <c r="O62">
-        <v>0.406</v>
-      </c>
-      <c r="P62">
-        <v>0.52</v>
-      </c>
-      <c r="Q62">
-        <v>0.538</v>
-      </c>
-      <c r="R62">
-        <v>0.521</v>
-      </c>
-      <c r="S62">
-        <v>0.458</v>
-      </c>
-      <c r="T62">
-        <v>0.659</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -2685,28 +2697,40 @@
         <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J63">
-        <v>0.432</v>
+        <v>103</v>
       </c>
       <c r="K63">
-        <v>0.584</v>
+        <v>0.535</v>
       </c>
       <c r="L63">
-        <v>0.68</v>
+        <v>0.638</v>
       </c>
       <c r="M63">
-        <v>0.76</v>
+        <v>0.604</v>
       </c>
       <c r="N63">
-        <v>0.649</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="O63">
-        <v>0.676</v>
+        <v>0.434</v>
+      </c>
+      <c r="P63">
+        <v>0.478</v>
+      </c>
+      <c r="Q63">
+        <v>0.468</v>
+      </c>
+      <c r="R63">
+        <v>0.478</v>
+      </c>
+      <c r="S63">
+        <v>0.483</v>
+      </c>
+      <c r="T63">
+        <v>0.521</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -2717,28 +2741,28 @@
         <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J64">
-        <v>0.511</v>
-      </c>
-      <c r="K64">
-        <v>0.579</v>
-      </c>
-      <c r="L64">
-        <v>0.666</v>
-      </c>
-      <c r="M64">
-        <v>0.84</v>
-      </c>
-      <c r="N64">
-        <v>0.653</v>
+        <v>120</v>
       </c>
       <c r="O64">
-        <v>0.608</v>
+        <v>0.885</v>
+      </c>
+      <c r="P64">
+        <v>0.753</v>
+      </c>
+      <c r="Q64">
+        <v>0.747</v>
+      </c>
+      <c r="R64">
+        <v>0.75</v>
+      </c>
+      <c r="S64">
+        <v>0.701</v>
+      </c>
+      <c r="T64">
+        <v>0.613</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -2749,28 +2773,43 @@
         <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
+      </c>
+      <c r="E65">
+        <v>0.611</v>
+      </c>
+      <c r="F65">
+        <v>0.547</v>
+      </c>
+      <c r="G65">
+        <v>0.705</v>
+      </c>
+      <c r="H65">
+        <v>0.617</v>
+      </c>
+      <c r="I65">
+        <v>0.747</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0.732</v>
       </c>
       <c r="K65">
-        <v>0.978</v>
+        <v>0.747</v>
       </c>
       <c r="L65">
-        <v>0.979</v>
+        <v>0.79</v>
       </c>
       <c r="M65">
-        <v>0.912</v>
+        <v>0.827</v>
       </c>
       <c r="N65">
-        <v>0.78</v>
+        <v>0.727</v>
       </c>
       <c r="O65">
-        <v>0.707</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -2781,28 +2820,43 @@
         <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="E66">
+        <v>0.951</v>
+      </c>
+      <c r="F66">
+        <v>0.982</v>
+      </c>
+      <c r="G66">
+        <v>0.983</v>
+      </c>
+      <c r="H66">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="I66">
+        <v>0.966</v>
       </c>
       <c r="J66">
-        <v>0.416</v>
+        <v>0.979</v>
       </c>
       <c r="K66">
-        <v>0.616</v>
+        <v>0.976</v>
       </c>
       <c r="L66">
-        <v>0.656</v>
+        <v>0.984</v>
       </c>
       <c r="M66">
-        <v>0.767</v>
+        <v>0.987</v>
       </c>
       <c r="N66">
-        <v>0.636</v>
+        <v>0.978</v>
       </c>
       <c r="O66">
-        <v>0.681</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -2813,13 +2867,28 @@
         <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J67">
-        <v>0.5570000000000001</v>
+        <v>0.515</v>
+      </c>
+      <c r="K67">
+        <v>0.614</v>
+      </c>
+      <c r="L67">
+        <v>0.65</v>
+      </c>
+      <c r="M67">
+        <v>0.988</v>
+      </c>
+      <c r="N67">
+        <v>0.959</v>
+      </c>
+      <c r="O67">
+        <v>0.9409999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -2830,19 +2899,43 @@
         <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
+      </c>
+      <c r="E68">
+        <v>0.597</v>
+      </c>
+      <c r="F68">
+        <v>0.657</v>
+      </c>
+      <c r="G68">
+        <v>0.716</v>
+      </c>
+      <c r="H68">
+        <v>0.632</v>
+      </c>
+      <c r="I68">
+        <v>0.654</v>
+      </c>
+      <c r="J68">
+        <v>0.741</v>
+      </c>
+      <c r="K68">
+        <v>0.705</v>
+      </c>
+      <c r="L68">
+        <v>0.8070000000000001</v>
       </c>
       <c r="M68">
-        <v>0.837</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="N68">
-        <v>0.674</v>
+        <v>0.781</v>
       </c>
       <c r="O68">
-        <v>0.611</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -2853,28 +2946,13 @@
         <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O69">
-        <v>0.375</v>
-      </c>
-      <c r="P69">
-        <v>0.473</v>
-      </c>
-      <c r="Q69">
-        <v>0.459</v>
-      </c>
-      <c r="R69">
-        <v>0.485</v>
-      </c>
-      <c r="S69">
-        <v>0.482</v>
-      </c>
-      <c r="T69">
-        <v>0.581</v>
+        <v>105</v>
+      </c>
+      <c r="J69">
+        <v>0.985</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -2885,43 +2963,19 @@
         <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J70">
-        <v>0.505</v>
-      </c>
-      <c r="K70">
-        <v>0.585</v>
-      </c>
-      <c r="L70">
-        <v>0.657</v>
+        <v>106</v>
       </c>
       <c r="M70">
-        <v>0.842</v>
+        <v>0.987</v>
       </c>
       <c r="N70">
-        <v>0.654</v>
+        <v>0.983</v>
       </c>
       <c r="O70">
-        <v>0.553</v>
-      </c>
-      <c r="P70">
-        <v>0.47</v>
-      </c>
-      <c r="Q70">
-        <v>0.469</v>
-      </c>
-      <c r="R70">
-        <v>0.467</v>
-      </c>
-      <c r="S70">
-        <v>0.475</v>
-      </c>
-      <c r="T70">
-        <v>0.517</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -2932,34 +2986,25 @@
         <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K71">
-        <v>0.598</v>
-      </c>
-      <c r="L71">
-        <v>0.68</v>
-      </c>
-      <c r="M71">
-        <v>0.859</v>
-      </c>
-      <c r="N71">
-        <v>0.666</v>
-      </c>
-      <c r="O71">
-        <v>0.544</v>
-      </c>
-      <c r="P71">
-        <v>0.474</v>
-      </c>
-      <c r="Q71">
-        <v>0.462</v>
-      </c>
-      <c r="R71">
-        <v>0.46</v>
+        <v>83</v>
+      </c>
+      <c r="F71">
+        <v>0.978</v>
+      </c>
+      <c r="G71">
+        <v>0.982</v>
+      </c>
+      <c r="H71">
+        <v>0.965</v>
+      </c>
+      <c r="I71">
+        <v>0.972</v>
+      </c>
+      <c r="J71">
+        <v>0.984</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -2970,28 +3015,28 @@
         <v>21</v>
       </c>
       <c r="C72" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="O72">
-        <v>0.468</v>
-      </c>
-      <c r="P72">
-        <v>0.523</v>
-      </c>
-      <c r="Q72">
-        <v>0.531</v>
-      </c>
-      <c r="R72">
-        <v>0.491</v>
-      </c>
-      <c r="S72">
-        <v>0.521</v>
-      </c>
-      <c r="T72">
-        <v>0.601</v>
+        <v>84</v>
+      </c>
+      <c r="E72">
+        <v>0.626</v>
+      </c>
+      <c r="F72">
+        <v>0.633</v>
+      </c>
+      <c r="G72">
+        <v>0.781</v>
+      </c>
+      <c r="H72">
+        <v>0.58</v>
+      </c>
+      <c r="I72">
+        <v>0.83</v>
+      </c>
+      <c r="J72">
+        <v>0.704</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -3002,19 +3047,28 @@
         <v>21</v>
       </c>
       <c r="C73" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J73">
-        <v>0.514</v>
-      </c>
-      <c r="K73">
-        <v>0.573</v>
-      </c>
-      <c r="L73">
-        <v>0.652</v>
+        <v>121</v>
+      </c>
+      <c r="O73">
+        <v>0.986</v>
+      </c>
+      <c r="P73">
+        <v>0.985</v>
+      </c>
+      <c r="Q73">
+        <v>0.983</v>
+      </c>
+      <c r="R73">
+        <v>0.983</v>
+      </c>
+      <c r="S73">
+        <v>0.984</v>
+      </c>
+      <c r="T73">
+        <v>0.988</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -3025,43 +3079,58 @@
         <v>21</v>
       </c>
       <c r="C74" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="E74">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="F74">
+        <v>0.985</v>
+      </c>
+      <c r="G74">
+        <v>0.986</v>
+      </c>
+      <c r="H74">
+        <v>0.966</v>
+      </c>
+      <c r="I74">
+        <v>0.981</v>
       </c>
       <c r="J74">
-        <v>0.491</v>
+        <v>0.985</v>
       </c>
       <c r="K74">
-        <v>0.5679999999999999</v>
+        <v>0.981</v>
       </c>
       <c r="L74">
-        <v>0.6840000000000001</v>
+        <v>0.988</v>
       </c>
       <c r="M74">
-        <v>0.848</v>
+        <v>0.99</v>
       </c>
       <c r="N74">
-        <v>0.669</v>
+        <v>0.978</v>
       </c>
       <c r="O74">
-        <v>0.554</v>
+        <v>0.981</v>
       </c>
       <c r="P74">
-        <v>0.465</v>
+        <v>0.981</v>
       </c>
       <c r="Q74">
-        <v>0.456</v>
+        <v>0.99</v>
       </c>
       <c r="R74">
-        <v>0.456</v>
+        <v>0.99</v>
       </c>
       <c r="S74">
-        <v>0.474</v>
+        <v>0.988</v>
       </c>
       <c r="T74">
-        <v>0.502</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -3072,43 +3141,13 @@
         <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J75">
-        <v>0.493</v>
-      </c>
-      <c r="K75">
-        <v>0.586</v>
-      </c>
-      <c r="L75">
-        <v>0.651</v>
-      </c>
-      <c r="M75">
-        <v>0.848</v>
-      </c>
-      <c r="N75">
-        <v>0.666</v>
-      </c>
-      <c r="O75">
-        <v>0.549</v>
-      </c>
-      <c r="P75">
-        <v>0.479</v>
-      </c>
-      <c r="Q75">
-        <v>0.485</v>
-      </c>
-      <c r="R75">
-        <v>0.487</v>
-      </c>
-      <c r="S75">
-        <v>0.497</v>
-      </c>
-      <c r="T75">
-        <v>0.5669999999999999</v>
+        <v>86</v>
+      </c>
+      <c r="E75">
+        <v>0.972</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -3119,28 +3158,28 @@
         <v>21</v>
       </c>
       <c r="C76" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
+      </c>
+      <c r="E76">
+        <v>0.589</v>
+      </c>
+      <c r="F76">
+        <v>0.525</v>
+      </c>
+      <c r="G76">
+        <v>0.729</v>
+      </c>
+      <c r="H76">
+        <v>0.626</v>
+      </c>
+      <c r="I76">
+        <v>0.864</v>
       </c>
       <c r="J76">
-        <v>0.401</v>
-      </c>
-      <c r="K76">
-        <v>0.584</v>
-      </c>
-      <c r="L76">
-        <v>0.659</v>
-      </c>
-      <c r="M76">
-        <v>0.767</v>
-      </c>
-      <c r="N76">
-        <v>0.67</v>
-      </c>
-      <c r="O76">
-        <v>0.675</v>
+        <v>0.774</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -3151,43 +3190,34 @@
         <v>21</v>
       </c>
       <c r="C77" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="K77">
-        <v>0.961</v>
+        <v>0.983</v>
       </c>
       <c r="L77">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="M77">
-        <v>0.763</v>
+        <v>0.982</v>
       </c>
       <c r="N77">
-        <v>0.872</v>
+        <v>0.98</v>
       </c>
       <c r="O77">
-        <v>0.903</v>
+        <v>0.979</v>
       </c>
       <c r="P77">
-        <v>0.984</v>
+        <v>0.988</v>
       </c>
       <c r="Q77">
-        <v>0.979</v>
+        <v>0.983</v>
       </c>
       <c r="R77">
-        <v>0.987</v>
-      </c>
-      <c r="S77">
-        <v>0.969</v>
-      </c>
-      <c r="T77">
-        <v>0.922</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -3198,28 +3228,13 @@
         <v>21</v>
       </c>
       <c r="C78" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J78">
-        <v>0.525</v>
-      </c>
-      <c r="K78">
-        <v>0.48</v>
-      </c>
-      <c r="L78">
-        <v>0.46</v>
-      </c>
-      <c r="M78">
-        <v>0.59</v>
-      </c>
-      <c r="N78">
-        <v>0.58</v>
-      </c>
-      <c r="O78">
-        <v>0.499</v>
+        <v>88</v>
+      </c>
+      <c r="E78">
+        <v>0.956</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -3230,28 +3245,28 @@
         <v>21</v>
       </c>
       <c r="C79" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="E79">
+        <v>0.729</v>
+      </c>
+      <c r="F79">
+        <v>0.694</v>
+      </c>
+      <c r="G79">
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="H79">
+        <v>0.704</v>
+      </c>
+      <c r="I79">
+        <v>0.767</v>
       </c>
       <c r="J79">
-        <v>0.505</v>
-      </c>
-      <c r="K79">
-        <v>0.577</v>
-      </c>
-      <c r="L79">
-        <v>0.662</v>
-      </c>
-      <c r="M79">
-        <v>0.861</v>
-      </c>
-      <c r="N79">
-        <v>0.676</v>
-      </c>
-      <c r="O79">
-        <v>0.593</v>
+        <v>0.727</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -3262,43 +3277,28 @@
         <v>21</v>
       </c>
       <c r="C80" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J80">
-        <v>0.377</v>
-      </c>
-      <c r="K80">
-        <v>0.544</v>
-      </c>
-      <c r="L80">
-        <v>0.658</v>
-      </c>
-      <c r="M80">
-        <v>0.837</v>
-      </c>
-      <c r="N80">
-        <v>0.672</v>
+        <v>122</v>
       </c>
       <c r="O80">
-        <v>0.546</v>
+        <v>0.819</v>
       </c>
       <c r="P80">
-        <v>0.472</v>
+        <v>0.745</v>
       </c>
       <c r="Q80">
-        <v>0.502</v>
+        <v>0.755</v>
       </c>
       <c r="R80">
-        <v>0.451</v>
+        <v>0.751</v>
       </c>
       <c r="S80">
-        <v>0.48</v>
+        <v>0.726</v>
       </c>
       <c r="T80">
-        <v>0.539</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -3309,37 +3309,19 @@
         <v>21</v>
       </c>
       <c r="C81" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="J81">
-        <v>0.47</v>
+        <v>0.981</v>
       </c>
       <c r="K81">
-        <v>0.594</v>
+        <v>0.975</v>
       </c>
       <c r="L81">
-        <v>0.658</v>
-      </c>
-      <c r="M81">
-        <v>0.872</v>
-      </c>
-      <c r="N81">
-        <v>0.522</v>
-      </c>
-      <c r="O81">
-        <v>0.616</v>
-      </c>
-      <c r="R81">
-        <v>0.445</v>
-      </c>
-      <c r="S81">
-        <v>0.472</v>
-      </c>
-      <c r="T81">
-        <v>0.51</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -3350,28 +3332,58 @@
         <v>21</v>
       </c>
       <c r="C82" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>123</v>
+        <v>90</v>
+      </c>
+      <c r="E82">
+        <v>0.961</v>
+      </c>
+      <c r="F82">
+        <v>0.987</v>
+      </c>
+      <c r="G82">
+        <v>0.991</v>
+      </c>
+      <c r="H82">
+        <v>0.947</v>
+      </c>
+      <c r="I82">
+        <v>0.967</v>
+      </c>
+      <c r="J82">
+        <v>0.985</v>
+      </c>
+      <c r="K82">
+        <v>0.984</v>
+      </c>
+      <c r="L82">
+        <v>0.988</v>
+      </c>
+      <c r="M82">
+        <v>0.994</v>
+      </c>
+      <c r="N82">
+        <v>0.989</v>
       </c>
       <c r="O82">
-        <v>0.373</v>
+        <v>0.985</v>
       </c>
       <c r="P82">
-        <v>0.475</v>
+        <v>0.983</v>
       </c>
       <c r="Q82">
-        <v>0.471</v>
+        <v>0.99</v>
       </c>
       <c r="R82">
-        <v>0.464</v>
+        <v>0.991</v>
       </c>
       <c r="S82">
-        <v>0.483</v>
+        <v>0.989</v>
       </c>
       <c r="T82">
-        <v>0.583</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -3382,13 +3394,28 @@
         <v>21</v>
       </c>
       <c r="C83" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="E83">
+        <v>0.606</v>
+      </c>
+      <c r="F83">
+        <v>0.437</v>
+      </c>
+      <c r="G83">
+        <v>0.798</v>
+      </c>
+      <c r="H83">
+        <v>0.585</v>
+      </c>
+      <c r="I83">
+        <v>0.696</v>
       </c>
       <c r="J83">
-        <v>0.462</v>
+        <v>0.806</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -3399,28 +3426,58 @@
         <v>21</v>
       </c>
       <c r="C84" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>92</v>
+      </c>
+      <c r="E84">
+        <v>0.962</v>
+      </c>
+      <c r="F84">
+        <v>0.978</v>
+      </c>
+      <c r="G84">
+        <v>0.989</v>
+      </c>
+      <c r="H84">
+        <v>0.966</v>
+      </c>
+      <c r="I84">
+        <v>0.982</v>
+      </c>
+      <c r="J84">
+        <v>0.984</v>
+      </c>
+      <c r="K84">
+        <v>0.978</v>
+      </c>
+      <c r="L84">
+        <v>0.989</v>
+      </c>
+      <c r="M84">
+        <v>0.985</v>
+      </c>
+      <c r="N84">
+        <v>0.984</v>
       </c>
       <c r="O84">
-        <v>0.44</v>
+        <v>0.984</v>
       </c>
       <c r="P84">
-        <v>0.514</v>
+        <v>0.989</v>
       </c>
       <c r="Q84">
-        <v>0.534</v>
+        <v>0.984</v>
       </c>
       <c r="R84">
-        <v>0.523</v>
+        <v>0.992</v>
       </c>
       <c r="S84">
-        <v>0.459</v>
+        <v>0.992</v>
       </c>
       <c r="T84">
-        <v>0.634</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -3431,43 +3488,28 @@
         <v>21</v>
       </c>
       <c r="C85" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J85">
-        <v>0.382</v>
+        <v>0.678</v>
       </c>
       <c r="K85">
-        <v>0.602</v>
+        <v>0.726</v>
       </c>
       <c r="L85">
-        <v>0.614</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="M85">
-        <v>0.884</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="N85">
-        <v>0.668</v>
+        <v>0.788</v>
       </c>
       <c r="O85">
-        <v>0.518</v>
-      </c>
-      <c r="P85">
-        <v>0.468</v>
-      </c>
-      <c r="Q85">
-        <v>0.462</v>
-      </c>
-      <c r="R85">
-        <v>0.498</v>
-      </c>
-      <c r="S85">
-        <v>0.498</v>
-      </c>
-      <c r="T85">
-        <v>0.51</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -3478,28 +3520,43 @@
         <v>21</v>
       </c>
       <c r="C86" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
+      </c>
+      <c r="J86">
+        <v>0.419</v>
+      </c>
+      <c r="K86">
+        <v>0.594</v>
+      </c>
+      <c r="L86">
+        <v>0.806</v>
+      </c>
+      <c r="M86">
+        <v>0.464</v>
+      </c>
+      <c r="N86">
+        <v>0.595</v>
       </c>
       <c r="O86">
-        <v>0.59</v>
+        <v>0.455</v>
       </c>
       <c r="P86">
-        <v>0.63</v>
+        <v>0.452</v>
       </c>
       <c r="Q86">
-        <v>0.635</v>
+        <v>0.444</v>
       </c>
       <c r="R86">
-        <v>0.59</v>
+        <v>0.43</v>
       </c>
       <c r="S86">
-        <v>0.504</v>
+        <v>0.413</v>
       </c>
       <c r="T86">
-        <v>0.6889999999999999</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -3510,28 +3567,28 @@
         <v>21</v>
       </c>
       <c r="C87" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
+      </c>
+      <c r="J87">
+        <v>0.641</v>
+      </c>
+      <c r="K87">
+        <v>0.665</v>
+      </c>
+      <c r="L87">
+        <v>0.53</v>
+      </c>
+      <c r="M87">
+        <v>0.646</v>
+      </c>
+      <c r="N87">
+        <v>0.55</v>
       </c>
       <c r="O87">
-        <v>0.465</v>
-      </c>
-      <c r="P87">
-        <v>0.53</v>
-      </c>
-      <c r="Q87">
-        <v>0.553</v>
-      </c>
-      <c r="R87">
-        <v>0.521</v>
-      </c>
-      <c r="S87">
-        <v>0.484</v>
-      </c>
-      <c r="T87">
-        <v>0.652</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -3542,28 +3599,43 @@
         <v>21</v>
       </c>
       <c r="C88" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
+      </c>
+      <c r="E88">
+        <v>0.966</v>
+      </c>
+      <c r="F88">
+        <v>0.979</v>
+      </c>
+      <c r="G88">
+        <v>0.983</v>
+      </c>
+      <c r="H88">
+        <v>0.952</v>
+      </c>
+      <c r="I88">
+        <v>0.975</v>
       </c>
       <c r="J88">
-        <v>0.407</v>
+        <v>0.981</v>
       </c>
       <c r="K88">
-        <v>0.578</v>
+        <v>0.969</v>
       </c>
       <c r="L88">
-        <v>0.71</v>
+        <v>0.972</v>
       </c>
       <c r="M88">
-        <v>0.757</v>
+        <v>0.989</v>
       </c>
       <c r="N88">
-        <v>0.623</v>
+        <v>0.98</v>
       </c>
       <c r="O88">
-        <v>0.695</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -3574,25 +3646,46 @@
         <v>21</v>
       </c>
       <c r="C89" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>94</v>
+      </c>
+      <c r="I89">
+        <v>0.871</v>
+      </c>
+      <c r="J89">
+        <v>0.974</v>
       </c>
       <c r="K89">
-        <v>0.587</v>
+        <v>0.985</v>
       </c>
       <c r="L89">
-        <v>0.649</v>
+        <v>0.989</v>
       </c>
       <c r="M89">
-        <v>0.84</v>
+        <v>0.986</v>
       </c>
       <c r="N89">
-        <v>0.672</v>
+        <v>0.978</v>
       </c>
       <c r="O89">
-        <v>0.611</v>
+        <v>0.981</v>
+      </c>
+      <c r="P89">
+        <v>0.982</v>
+      </c>
+      <c r="Q89">
+        <v>0.982</v>
+      </c>
+      <c r="R89">
+        <v>0.992</v>
+      </c>
+      <c r="S89">
+        <v>0.979</v>
+      </c>
+      <c r="T89">
+        <v>0.988</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -3603,31 +3696,52 @@
         <v>21</v>
       </c>
       <c r="C90" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>95</v>
+      </c>
+      <c r="E90">
+        <v>0.963</v>
+      </c>
+      <c r="F90">
+        <v>0.975</v>
+      </c>
+      <c r="G90">
+        <v>0.982</v>
+      </c>
+      <c r="H90">
+        <v>0.966</v>
+      </c>
+      <c r="I90">
+        <v>0.977</v>
       </c>
       <c r="J90">
-        <v>1</v>
+        <v>0.961</v>
+      </c>
+      <c r="K90">
+        <v>0.976</v>
+      </c>
+      <c r="L90">
+        <v>0.984</v>
+      </c>
+      <c r="M90">
+        <v>0.977</v>
+      </c>
+      <c r="N90">
+        <v>0.955</v>
       </c>
       <c r="O90">
-        <v>1</v>
-      </c>
-      <c r="P90">
-        <v>0.991</v>
-      </c>
-      <c r="Q90">
-        <v>0.988</v>
+        <v>0.947</v>
       </c>
       <c r="R90">
-        <v>0.991</v>
+        <v>0.982</v>
       </c>
       <c r="S90">
-        <v>0.99</v>
+        <v>0.973</v>
       </c>
       <c r="T90">
-        <v>0.993</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -3638,43 +3752,28 @@
         <v>21</v>
       </c>
       <c r="C91" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>115</v>
+        <v>96</v>
+      </c>
+      <c r="E91">
+        <v>0.547</v>
+      </c>
+      <c r="F91">
+        <v>0.623</v>
+      </c>
+      <c r="G91">
+        <v>0.785</v>
+      </c>
+      <c r="H91">
+        <v>0.61</v>
+      </c>
+      <c r="I91">
+        <v>0.73</v>
       </c>
       <c r="J91">
-        <v>0.516</v>
-      </c>
-      <c r="K91">
-        <v>0.583</v>
-      </c>
-      <c r="L91">
-        <v>0.6820000000000001</v>
-      </c>
-      <c r="M91">
-        <v>0.908</v>
-      </c>
-      <c r="N91">
-        <v>0.661</v>
-      </c>
-      <c r="O91">
-        <v>0.555</v>
-      </c>
-      <c r="P91">
-        <v>0.502</v>
-      </c>
-      <c r="Q91">
-        <v>0.453</v>
-      </c>
-      <c r="R91">
-        <v>0.465</v>
-      </c>
-      <c r="S91">
-        <v>0.475</v>
-      </c>
-      <c r="T91">
-        <v>0.503</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -3685,28 +3784,28 @@
         <v>21</v>
       </c>
       <c r="C92" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J92">
-        <v>0.493</v>
-      </c>
-      <c r="K92">
-        <v>0.579</v>
-      </c>
-      <c r="L92">
-        <v>0.7</v>
-      </c>
-      <c r="M92">
-        <v>0.754</v>
-      </c>
-      <c r="N92">
-        <v>0.704</v>
+        <v>123</v>
       </c>
       <c r="O92">
-        <v>0.613</v>
+        <v>0.995</v>
+      </c>
+      <c r="P92">
+        <v>0.988</v>
+      </c>
+      <c r="Q92">
+        <v>0.99</v>
+      </c>
+      <c r="R92">
+        <v>0.993</v>
+      </c>
+      <c r="S92">
+        <v>0.991</v>
+      </c>
+      <c r="T92">
+        <v>0.994</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -3714,31 +3813,31 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C93" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E93">
-        <v>0.626</v>
+        <v>0.92</v>
       </c>
       <c r="F93">
-        <v>0.5620000000000001</v>
+        <v>0.977</v>
       </c>
       <c r="G93">
-        <v>0.6929999999999999</v>
+        <v>0.989</v>
       </c>
       <c r="H93">
-        <v>0.607</v>
+        <v>0.96</v>
       </c>
       <c r="I93">
-        <v>0.833</v>
+        <v>0.974</v>
       </c>
       <c r="J93">
-        <v>0.753</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -3746,31 +3845,31 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C94" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="O94">
-        <v>0.991</v>
+        <v>0.836</v>
       </c>
       <c r="P94">
-        <v>0.988</v>
+        <v>0.745</v>
       </c>
       <c r="Q94">
-        <v>0.991</v>
+        <v>0.757</v>
       </c>
       <c r="R94">
-        <v>0.993</v>
+        <v>0.742</v>
       </c>
       <c r="S94">
-        <v>0.992</v>
+        <v>0.676</v>
       </c>
       <c r="T94">
-        <v>0.996</v>
+        <v>0.651</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -3778,31 +3877,31 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C95" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="O95">
-        <v>0.996</v>
-      </c>
-      <c r="P95">
-        <v>0.991</v>
-      </c>
-      <c r="Q95">
-        <v>0.991</v>
-      </c>
-      <c r="R95">
-        <v>0.992</v>
-      </c>
-      <c r="S95">
-        <v>0.989</v>
-      </c>
-      <c r="T95">
-        <v>0.995</v>
+        <v>98</v>
+      </c>
+      <c r="E95">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="F95">
+        <v>0.979</v>
+      </c>
+      <c r="G95">
+        <v>0.986</v>
+      </c>
+      <c r="H95">
+        <v>0.886</v>
+      </c>
+      <c r="I95">
+        <v>0.973</v>
+      </c>
+      <c r="J95">
+        <v>0.952</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -3810,61 +3909,31 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C96" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E96">
-        <v>0.97</v>
+        <v>0.648</v>
       </c>
       <c r="F96">
-        <v>0.987</v>
+        <v>0.604</v>
       </c>
       <c r="G96">
-        <v>0.988</v>
+        <v>0.79</v>
       </c>
       <c r="H96">
-        <v>0.963</v>
+        <v>0.636</v>
       </c>
       <c r="I96">
-        <v>0.985</v>
+        <v>0.756</v>
       </c>
       <c r="J96">
-        <v>0.984</v>
-      </c>
-      <c r="K96">
-        <v>0.98</v>
-      </c>
-      <c r="L96">
-        <v>0.989</v>
-      </c>
-      <c r="M96">
-        <v>0.989</v>
-      </c>
-      <c r="N96">
-        <v>0.992</v>
-      </c>
-      <c r="O96">
-        <v>0.982</v>
-      </c>
-      <c r="P96">
-        <v>0.989</v>
-      </c>
-      <c r="Q96">
-        <v>0.991</v>
-      </c>
-      <c r="R96">
-        <v>0.992</v>
-      </c>
-      <c r="S96">
-        <v>0.991</v>
-      </c>
-      <c r="T96">
-        <v>0.992</v>
+        <v>0.778</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -3872,25 +3941,46 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G97">
-        <v>0.991</v>
-      </c>
-      <c r="H97">
-        <v>0.968</v>
-      </c>
-      <c r="I97">
-        <v>0.984</v>
+        <v>112</v>
       </c>
       <c r="J97">
         <v>0.986</v>
+      </c>
+      <c r="K97">
+        <v>0.977</v>
+      </c>
+      <c r="L97">
+        <v>0.988</v>
+      </c>
+      <c r="M97">
+        <v>0.98</v>
+      </c>
+      <c r="N97">
+        <v>0.974</v>
+      </c>
+      <c r="O97">
+        <v>0.977</v>
+      </c>
+      <c r="P97">
+        <v>0.981</v>
+      </c>
+      <c r="Q97">
+        <v>0.989</v>
+      </c>
+      <c r="R97">
+        <v>0.989</v>
+      </c>
+      <c r="S97">
+        <v>0.987</v>
+      </c>
+      <c r="T97">
+        <v>0.992</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -3898,31 +3988,31 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C98" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="O98">
-        <v>0.577</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="P98">
+        <v>0.527</v>
+      </c>
+      <c r="Q98">
         <v>0.537</v>
       </c>
-      <c r="Q98">
-        <v>0.528</v>
-      </c>
       <c r="R98">
-        <v>0.579</v>
+        <v>0.542</v>
       </c>
       <c r="S98">
-        <v>0.499</v>
+        <v>0.514</v>
       </c>
       <c r="T98">
-        <v>0.479</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -3930,46 +4020,31 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E99">
-        <v>0.953</v>
-      </c>
-      <c r="F99">
-        <v>0.981</v>
-      </c>
-      <c r="G99">
-        <v>0.988</v>
-      </c>
-      <c r="H99">
-        <v>0.959</v>
-      </c>
-      <c r="I99">
-        <v>0.982</v>
-      </c>
-      <c r="J99">
-        <v>0.976</v>
-      </c>
-      <c r="K99">
-        <v>0.981</v>
-      </c>
-      <c r="L99">
-        <v>0.991</v>
-      </c>
-      <c r="M99">
-        <v>0.986</v>
-      </c>
-      <c r="N99">
-        <v>0.98</v>
+        <v>126</v>
       </c>
       <c r="O99">
-        <v>0.977</v>
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="P99">
+        <v>0.74</v>
+      </c>
+      <c r="Q99">
+        <v>0.736</v>
+      </c>
+      <c r="R99">
+        <v>0.727</v>
+      </c>
+      <c r="S99">
+        <v>0.706</v>
+      </c>
+      <c r="T99">
+        <v>0.639</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -3977,43 +4052,25 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C100" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K100">
-        <v>0.535</v>
-      </c>
-      <c r="L100">
-        <v>0.638</v>
-      </c>
-      <c r="M100">
-        <v>0.604</v>
-      </c>
-      <c r="N100">
-        <v>0.5639999999999999</v>
-      </c>
-      <c r="O100">
-        <v>0.434</v>
-      </c>
-      <c r="P100">
-        <v>0.478</v>
-      </c>
-      <c r="Q100">
-        <v>0.468</v>
-      </c>
-      <c r="R100">
-        <v>0.478</v>
-      </c>
-      <c r="S100">
-        <v>0.483</v>
-      </c>
-      <c r="T100">
-        <v>0.521</v>
+        <v>100</v>
+      </c>
+      <c r="G100">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="H100">
+        <v>0.701</v>
+      </c>
+      <c r="I100">
+        <v>0.57</v>
+      </c>
+      <c r="J100">
+        <v>0.719</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -4021,31 +4078,46 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C101" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
+      </c>
+      <c r="E101">
+        <v>0.482</v>
+      </c>
+      <c r="F101">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G101">
+        <v>0.794</v>
+      </c>
+      <c r="H101">
+        <v>0.59</v>
+      </c>
+      <c r="I101">
+        <v>0.758</v>
+      </c>
+      <c r="J101">
+        <v>0.721</v>
+      </c>
+      <c r="K101">
+        <v>0.706</v>
+      </c>
+      <c r="L101">
+        <v>0.775</v>
+      </c>
+      <c r="M101">
+        <v>0.822</v>
+      </c>
+      <c r="N101">
+        <v>0.767</v>
       </c>
       <c r="O101">
-        <v>0.885</v>
-      </c>
-      <c r="P101">
         <v>0.753</v>
-      </c>
-      <c r="Q101">
-        <v>0.747</v>
-      </c>
-      <c r="R101">
-        <v>0.75</v>
-      </c>
-      <c r="S101">
-        <v>0.701</v>
-      </c>
-      <c r="T101">
-        <v>0.613</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -4053,46 +4125,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E102">
-        <v>0.611</v>
-      </c>
-      <c r="F102">
-        <v>0.547</v>
-      </c>
-      <c r="G102">
-        <v>0.705</v>
-      </c>
-      <c r="H102">
-        <v>0.617</v>
-      </c>
-      <c r="I102">
-        <v>0.747</v>
-      </c>
-      <c r="J102">
-        <v>0.732</v>
+        <v>113</v>
       </c>
       <c r="K102">
-        <v>0.747</v>
+        <v>0.981</v>
       </c>
       <c r="L102">
-        <v>0.79</v>
+        <v>0.977</v>
       </c>
       <c r="M102">
-        <v>0.827</v>
+        <v>0.964</v>
       </c>
       <c r="N102">
-        <v>0.727</v>
+        <v>0.963</v>
       </c>
       <c r="O102">
-        <v>0.759</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -4100,46 +4154,34 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E103">
-        <v>0.951</v>
-      </c>
-      <c r="F103">
-        <v>0.982</v>
-      </c>
-      <c r="G103">
-        <v>0.983</v>
-      </c>
-      <c r="H103">
-        <v>0.9379999999999999</v>
-      </c>
-      <c r="I103">
-        <v>0.966</v>
+        <v>114</v>
       </c>
       <c r="J103">
-        <v>0.979</v>
-      </c>
-      <c r="K103">
-        <v>0.976</v>
-      </c>
-      <c r="L103">
-        <v>0.984</v>
-      </c>
-      <c r="M103">
-        <v>0.987</v>
-      </c>
-      <c r="N103">
-        <v>0.978</v>
+        <v>0.497</v>
       </c>
       <c r="O103">
-        <v>0.971</v>
+        <v>0.38</v>
+      </c>
+      <c r="P103">
+        <v>0.487</v>
+      </c>
+      <c r="Q103">
+        <v>0.48</v>
+      </c>
+      <c r="R103">
+        <v>0.485</v>
+      </c>
+      <c r="S103">
+        <v>0.505</v>
+      </c>
+      <c r="T103">
+        <v>0.541</v>
       </c>
     </row>
     <row r="104" spans="1:20">
@@ -4147,31 +4189,31 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C104" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="E104">
+        <v>0.955</v>
+      </c>
+      <c r="F104">
+        <v>0.966</v>
+      </c>
+      <c r="G104">
+        <v>0.985</v>
+      </c>
+      <c r="H104">
+        <v>0.96</v>
+      </c>
+      <c r="I104">
+        <v>0.949</v>
       </c>
       <c r="J104">
-        <v>0.515</v>
-      </c>
-      <c r="K104">
-        <v>0.614</v>
-      </c>
-      <c r="L104">
-        <v>0.65</v>
-      </c>
-      <c r="M104">
-        <v>0.988</v>
-      </c>
-      <c r="N104">
-        <v>0.959</v>
-      </c>
-      <c r="O104">
-        <v>0.9409999999999999</v>
+        <v>0.982</v>
       </c>
     </row>
     <row r="105" spans="1:20">
@@ -4179,46 +4221,46 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E105">
-        <v>0.597</v>
-      </c>
-      <c r="F105">
-        <v>0.657</v>
-      </c>
-      <c r="G105">
-        <v>0.716</v>
-      </c>
-      <c r="H105">
-        <v>0.632</v>
-      </c>
-      <c r="I105">
-        <v>0.654</v>
+        <v>115</v>
       </c>
       <c r="J105">
-        <v>0.741</v>
+        <v>0.986</v>
       </c>
       <c r="K105">
-        <v>0.705</v>
+        <v>0.984</v>
       </c>
       <c r="L105">
-        <v>0.8070000000000001</v>
+        <v>0.979</v>
       </c>
       <c r="M105">
-        <v>0.8129999999999999</v>
+        <v>0.984</v>
       </c>
       <c r="N105">
-        <v>0.781</v>
+        <v>0.979</v>
       </c>
       <c r="O105">
-        <v>0.738</v>
+        <v>0.982</v>
+      </c>
+      <c r="P105">
+        <v>0.986</v>
+      </c>
+      <c r="Q105">
+        <v>0.989</v>
+      </c>
+      <c r="R105">
+        <v>0.989</v>
+      </c>
+      <c r="S105">
+        <v>0.989</v>
+      </c>
+      <c r="T105">
+        <v>0.996</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -4226,16 +4268,31 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C106" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="J106">
+        <v>0.981</v>
+      </c>
+      <c r="K106">
+        <v>0.984</v>
+      </c>
+      <c r="L106">
         <v>0.985</v>
+      </c>
+      <c r="M106">
+        <v>0.986</v>
+      </c>
+      <c r="N106">
+        <v>0.983</v>
+      </c>
+      <c r="O106">
+        <v>0.974</v>
       </c>
     </row>
     <row r="107" spans="1:20">
@@ -4246,19 +4303,16 @@
         <v>22</v>
       </c>
       <c r="C107" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M107">
-        <v>0.987</v>
-      </c>
-      <c r="N107">
-        <v>0.983</v>
-      </c>
-      <c r="O107">
-        <v>0.978</v>
+        <v>76</v>
+      </c>
+      <c r="I107">
+        <v>0.915</v>
+      </c>
+      <c r="J107">
+        <v>0.796</v>
       </c>
     </row>
     <row r="108" spans="1:20">
@@ -4269,25 +4323,28 @@
         <v>22</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F108">
-        <v>0.978</v>
-      </c>
-      <c r="G108">
-        <v>0.982</v>
-      </c>
-      <c r="H108">
-        <v>0.965</v>
-      </c>
-      <c r="I108">
-        <v>0.972</v>
-      </c>
-      <c r="J108">
-        <v>0.984</v>
+        <v>117</v>
+      </c>
+      <c r="O108">
+        <v>0.582</v>
+      </c>
+      <c r="P108">
+        <v>0.528</v>
+      </c>
+      <c r="Q108">
+        <v>0.531</v>
+      </c>
+      <c r="R108">
+        <v>0.541</v>
+      </c>
+      <c r="S108">
+        <v>0.506</v>
+      </c>
+      <c r="T108">
+        <v>0.411</v>
       </c>
     </row>
     <row r="109" spans="1:20">
@@ -4298,28 +4355,28 @@
         <v>22</v>
       </c>
       <c r="C109" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E109">
-        <v>0.626</v>
-      </c>
-      <c r="F109">
-        <v>0.633</v>
-      </c>
-      <c r="G109">
-        <v>0.781</v>
-      </c>
-      <c r="H109">
-        <v>0.58</v>
-      </c>
-      <c r="I109">
-        <v>0.83</v>
-      </c>
-      <c r="J109">
-        <v>0.704</v>
+        <v>118</v>
+      </c>
+      <c r="O109">
+        <v>0.573</v>
+      </c>
+      <c r="P109">
+        <v>0.528</v>
+      </c>
+      <c r="Q109">
+        <v>0.534</v>
+      </c>
+      <c r="R109">
+        <v>0.57</v>
+      </c>
+      <c r="S109">
+        <v>0.506</v>
+      </c>
+      <c r="T109">
+        <v>0.411</v>
       </c>
     </row>
     <row r="110" spans="1:20">
@@ -4330,28 +4387,34 @@
         <v>22</v>
       </c>
       <c r="C110" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>121</v>
+        <v>77</v>
+      </c>
+      <c r="I110">
+        <v>0.913</v>
+      </c>
+      <c r="J110">
+        <v>0.917</v>
       </c>
       <c r="O110">
-        <v>0.986</v>
+        <v>0.582</v>
       </c>
       <c r="P110">
-        <v>0.985</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="Q110">
-        <v>0.983</v>
+        <v>0.527</v>
       </c>
       <c r="R110">
-        <v>0.983</v>
+        <v>0.585</v>
       </c>
       <c r="S110">
-        <v>0.984</v>
+        <v>0.436</v>
       </c>
       <c r="T110">
-        <v>0.988</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="111" spans="1:20">
@@ -4362,58 +4425,16 @@
         <v>22</v>
       </c>
       <c r="C111" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E111">
-        <v>0.9350000000000001</v>
-      </c>
-      <c r="F111">
-        <v>0.985</v>
-      </c>
-      <c r="G111">
-        <v>0.986</v>
-      </c>
-      <c r="H111">
-        <v>0.966</v>
+        <v>78</v>
       </c>
       <c r="I111">
-        <v>0.981</v>
+        <v>0.885</v>
       </c>
       <c r="J111">
-        <v>0.985</v>
-      </c>
-      <c r="K111">
-        <v>0.981</v>
-      </c>
-      <c r="L111">
-        <v>0.988</v>
-      </c>
-      <c r="M111">
-        <v>0.99</v>
-      </c>
-      <c r="N111">
-        <v>0.978</v>
-      </c>
-      <c r="O111">
-        <v>0.981</v>
-      </c>
-      <c r="P111">
-        <v>0.981</v>
-      </c>
-      <c r="Q111">
-        <v>0.99</v>
-      </c>
-      <c r="R111">
-        <v>0.99</v>
-      </c>
-      <c r="S111">
-        <v>0.988</v>
-      </c>
-      <c r="T111">
-        <v>0.992</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -4424,13 +4445,28 @@
         <v>22</v>
       </c>
       <c r="C112" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E112">
-        <v>0.972</v>
+        <v>119</v>
+      </c>
+      <c r="O112">
+        <v>1</v>
+      </c>
+      <c r="P112">
+        <v>0.998</v>
+      </c>
+      <c r="Q112">
+        <v>0.997</v>
+      </c>
+      <c r="R112">
+        <v>0.997</v>
+      </c>
+      <c r="S112">
+        <v>0.995</v>
+      </c>
+      <c r="T112">
+        <v>0.998</v>
       </c>
     </row>
     <row r="113" spans="1:20">
@@ -4441,28 +4477,16 @@
         <v>22</v>
       </c>
       <c r="C113" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E113">
-        <v>0.589</v>
-      </c>
-      <c r="F113">
-        <v>0.525</v>
-      </c>
-      <c r="G113">
-        <v>0.729</v>
-      </c>
-      <c r="H113">
-        <v>0.626</v>
+        <v>79</v>
       </c>
       <c r="I113">
-        <v>0.864</v>
+        <v>0.876</v>
       </c>
       <c r="J113">
-        <v>0.774</v>
+        <v>0.961</v>
       </c>
     </row>
     <row r="114" spans="1:20">
@@ -4473,34 +4497,28 @@
         <v>22</v>
       </c>
       <c r="C114" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K114">
-        <v>0.983</v>
-      </c>
-      <c r="L114">
-        <v>0.99</v>
-      </c>
-      <c r="M114">
-        <v>0.982</v>
-      </c>
-      <c r="N114">
-        <v>0.98</v>
+        <v>103</v>
       </c>
       <c r="O114">
-        <v>0.979</v>
+        <v>0.573</v>
       </c>
       <c r="P114">
-        <v>0.988</v>
+        <v>0.616</v>
       </c>
       <c r="Q114">
-        <v>0.983</v>
+        <v>0.625</v>
       </c>
       <c r="R114">
-        <v>0.991</v>
+        <v>0.581</v>
+      </c>
+      <c r="S114">
+        <v>0.518</v>
+      </c>
+      <c r="T114">
+        <v>0.711</v>
       </c>
     </row>
     <row r="115" spans="1:20">
@@ -4511,13 +4529,28 @@
         <v>22</v>
       </c>
       <c r="C115" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E115">
-        <v>0.956</v>
+        <v>120</v>
+      </c>
+      <c r="O115">
+        <v>0.722</v>
+      </c>
+      <c r="P115">
+        <v>0.764</v>
+      </c>
+      <c r="Q115">
+        <v>0.753</v>
+      </c>
+      <c r="R115">
+        <v>0.823</v>
+      </c>
+      <c r="S115">
+        <v>0.772</v>
+      </c>
+      <c r="T115">
+        <v>0.794</v>
       </c>
     </row>
     <row r="116" spans="1:20">
@@ -4528,28 +4561,16 @@
         <v>22</v>
       </c>
       <c r="C116" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E116">
-        <v>0.729</v>
-      </c>
-      <c r="F116">
-        <v>0.694</v>
-      </c>
-      <c r="G116">
-        <v>0.8110000000000001</v>
-      </c>
-      <c r="H116">
-        <v>0.704</v>
+        <v>80</v>
       </c>
       <c r="I116">
-        <v>0.767</v>
+        <v>0.832</v>
       </c>
       <c r="J116">
-        <v>0.727</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:20">
@@ -4560,28 +4581,16 @@
         <v>22</v>
       </c>
       <c r="C117" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="O117">
-        <v>0.819</v>
-      </c>
-      <c r="P117">
-        <v>0.745</v>
-      </c>
-      <c r="Q117">
-        <v>0.755</v>
-      </c>
-      <c r="R117">
-        <v>0.751</v>
-      </c>
-      <c r="S117">
-        <v>0.726</v>
-      </c>
-      <c r="T117">
-        <v>0.725</v>
+        <v>81</v>
+      </c>
+      <c r="I117">
+        <v>0.87</v>
+      </c>
+      <c r="J117">
+        <v>0.961</v>
       </c>
     </row>
     <row r="118" spans="1:20">
@@ -4592,19 +4601,16 @@
         <v>22</v>
       </c>
       <c r="C118" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>108</v>
+        <v>82</v>
+      </c>
+      <c r="I118">
+        <v>0.641</v>
       </c>
       <c r="J118">
-        <v>0.981</v>
-      </c>
-      <c r="K118">
-        <v>0.975</v>
-      </c>
-      <c r="L118">
-        <v>0.989</v>
+        <v>0.889</v>
       </c>
     </row>
     <row r="119" spans="1:20">
@@ -4615,58 +4621,16 @@
         <v>22</v>
       </c>
       <c r="C119" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E119">
-        <v>0.961</v>
-      </c>
-      <c r="F119">
-        <v>0.987</v>
-      </c>
-      <c r="G119">
-        <v>0.991</v>
-      </c>
-      <c r="H119">
-        <v>0.947</v>
+        <v>83</v>
       </c>
       <c r="I119">
+        <v>0.858</v>
+      </c>
+      <c r="J119">
         <v>0.967</v>
-      </c>
-      <c r="J119">
-        <v>0.985</v>
-      </c>
-      <c r="K119">
-        <v>0.984</v>
-      </c>
-      <c r="L119">
-        <v>0.988</v>
-      </c>
-      <c r="M119">
-        <v>0.994</v>
-      </c>
-      <c r="N119">
-        <v>0.989</v>
-      </c>
-      <c r="O119">
-        <v>0.985</v>
-      </c>
-      <c r="P119">
-        <v>0.983</v>
-      </c>
-      <c r="Q119">
-        <v>0.99</v>
-      </c>
-      <c r="R119">
-        <v>0.991</v>
-      </c>
-      <c r="S119">
-        <v>0.989</v>
-      </c>
-      <c r="T119">
-        <v>0.995</v>
       </c>
     </row>
     <row r="120" spans="1:20">
@@ -4677,28 +4641,16 @@
         <v>22</v>
       </c>
       <c r="C120" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E120">
-        <v>0.606</v>
-      </c>
-      <c r="F120">
-        <v>0.437</v>
-      </c>
-      <c r="G120">
-        <v>0.798</v>
-      </c>
-      <c r="H120">
-        <v>0.585</v>
+        <v>84</v>
       </c>
       <c r="I120">
-        <v>0.696</v>
+        <v>0.93</v>
       </c>
       <c r="J120">
-        <v>0.806</v>
+        <v>0.6909999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:20">
@@ -4709,58 +4661,28 @@
         <v>22</v>
       </c>
       <c r="C121" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E121">
-        <v>0.962</v>
-      </c>
-      <c r="F121">
-        <v>0.978</v>
-      </c>
-      <c r="G121">
-        <v>0.989</v>
-      </c>
-      <c r="H121">
-        <v>0.966</v>
-      </c>
-      <c r="I121">
-        <v>0.982</v>
-      </c>
-      <c r="J121">
-        <v>0.984</v>
-      </c>
-      <c r="K121">
-        <v>0.978</v>
-      </c>
-      <c r="L121">
-        <v>0.989</v>
-      </c>
-      <c r="M121">
-        <v>0.985</v>
-      </c>
-      <c r="N121">
-        <v>0.984</v>
+        <v>121</v>
       </c>
       <c r="O121">
-        <v>0.984</v>
+        <v>0.572</v>
       </c>
       <c r="P121">
-        <v>0.989</v>
+        <v>0.524</v>
       </c>
       <c r="Q121">
-        <v>0.984</v>
+        <v>0.534</v>
       </c>
       <c r="R121">
-        <v>0.992</v>
+        <v>0.604</v>
       </c>
       <c r="S121">
-        <v>0.992</v>
+        <v>0.513</v>
       </c>
       <c r="T121">
-        <v>0.995</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="122" spans="1:20">
@@ -4771,28 +4693,34 @@
         <v>22</v>
       </c>
       <c r="C122" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
+      </c>
+      <c r="I122">
+        <v>0.876</v>
       </c>
       <c r="J122">
-        <v>0.678</v>
-      </c>
-      <c r="K122">
-        <v>0.726</v>
-      </c>
-      <c r="L122">
-        <v>0.8080000000000001</v>
-      </c>
-      <c r="M122">
-        <v>0.8149999999999999</v>
-      </c>
-      <c r="N122">
-        <v>0.788</v>
+        <v>0.947</v>
       </c>
       <c r="O122">
-        <v>0.775</v>
+        <v>0.581</v>
+      </c>
+      <c r="P122">
+        <v>0.536</v>
+      </c>
+      <c r="Q122">
+        <v>0.534</v>
+      </c>
+      <c r="R122">
+        <v>0.547</v>
+      </c>
+      <c r="S122">
+        <v>0.507</v>
+      </c>
+      <c r="T122">
+        <v>0.424</v>
       </c>
     </row>
     <row r="123" spans="1:20">
@@ -4803,43 +4731,16 @@
         <v>22</v>
       </c>
       <c r="C123" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
+      </c>
+      <c r="I123">
+        <v>0.949</v>
       </c>
       <c r="J123">
-        <v>0.419</v>
-      </c>
-      <c r="K123">
-        <v>0.594</v>
-      </c>
-      <c r="L123">
-        <v>0.806</v>
-      </c>
-      <c r="M123">
-        <v>0.464</v>
-      </c>
-      <c r="N123">
-        <v>0.595</v>
-      </c>
-      <c r="O123">
-        <v>0.455</v>
-      </c>
-      <c r="P123">
-        <v>0.452</v>
-      </c>
-      <c r="Q123">
-        <v>0.444</v>
-      </c>
-      <c r="R123">
-        <v>0.43</v>
-      </c>
-      <c r="S123">
-        <v>0.413</v>
-      </c>
-      <c r="T123">
-        <v>0.381</v>
+        <v>0.803</v>
       </c>
     </row>
     <row r="124" spans="1:20">
@@ -4850,28 +4751,22 @@
         <v>22</v>
       </c>
       <c r="C124" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J124">
-        <v>0.641</v>
-      </c>
-      <c r="K124">
-        <v>0.665</v>
-      </c>
-      <c r="L124">
-        <v>0.53</v>
-      </c>
-      <c r="M124">
-        <v>0.646</v>
-      </c>
-      <c r="N124">
-        <v>0.55</v>
+        <v>107</v>
       </c>
       <c r="O124">
-        <v>0.676</v>
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="P124">
+        <v>0.525</v>
+      </c>
+      <c r="Q124">
+        <v>0.523</v>
+      </c>
+      <c r="R124">
+        <v>0.604</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -4882,43 +4777,16 @@
         <v>22</v>
       </c>
       <c r="C125" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E125">
-        <v>0.966</v>
-      </c>
-      <c r="F125">
-        <v>0.979</v>
-      </c>
-      <c r="G125">
-        <v>0.983</v>
-      </c>
-      <c r="H125">
-        <v>0.952</v>
+        <v>89</v>
       </c>
       <c r="I125">
-        <v>0.975</v>
+        <v>0.631</v>
       </c>
       <c r="J125">
-        <v>0.981</v>
-      </c>
-      <c r="K125">
-        <v>0.969</v>
-      </c>
-      <c r="L125">
-        <v>0.972</v>
-      </c>
-      <c r="M125">
-        <v>0.989</v>
-      </c>
-      <c r="N125">
-        <v>0.98</v>
-      </c>
-      <c r="O125">
-        <v>0.975</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="126" spans="1:20">
@@ -4929,46 +4797,28 @@
         <v>22</v>
       </c>
       <c r="C126" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I126">
-        <v>0.871</v>
-      </c>
-      <c r="J126">
-        <v>0.974</v>
-      </c>
-      <c r="K126">
-        <v>0.985</v>
-      </c>
-      <c r="L126">
-        <v>0.989</v>
-      </c>
-      <c r="M126">
-        <v>0.986</v>
-      </c>
-      <c r="N126">
-        <v>0.978</v>
+        <v>122</v>
       </c>
       <c r="O126">
-        <v>0.981</v>
+        <v>0.754</v>
       </c>
       <c r="P126">
-        <v>0.982</v>
+        <v>0.76</v>
       </c>
       <c r="Q126">
-        <v>0.982</v>
+        <v>0.745</v>
       </c>
       <c r="R126">
-        <v>0.992</v>
+        <v>0.806</v>
       </c>
       <c r="S126">
-        <v>0.979</v>
+        <v>0.738</v>
       </c>
       <c r="T126">
-        <v>0.988</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="127" spans="1:20">
@@ -4979,52 +4829,34 @@
         <v>22</v>
       </c>
       <c r="C127" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E127">
-        <v>0.963</v>
-      </c>
-      <c r="F127">
-        <v>0.975</v>
-      </c>
-      <c r="G127">
-        <v>0.982</v>
-      </c>
-      <c r="H127">
+        <v>90</v>
+      </c>
+      <c r="I127">
+        <v>0.869</v>
+      </c>
+      <c r="J127">
         <v>0.966</v>
       </c>
-      <c r="I127">
-        <v>0.977</v>
-      </c>
-      <c r="J127">
-        <v>0.961</v>
-      </c>
-      <c r="K127">
-        <v>0.976</v>
-      </c>
-      <c r="L127">
-        <v>0.984</v>
-      </c>
-      <c r="M127">
-        <v>0.977</v>
-      </c>
-      <c r="N127">
-        <v>0.955</v>
-      </c>
       <c r="O127">
-        <v>0.947</v>
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="P127">
+        <v>0.55</v>
+      </c>
+      <c r="Q127">
+        <v>0.538</v>
       </c>
       <c r="R127">
-        <v>0.982</v>
+        <v>0.548</v>
       </c>
       <c r="S127">
-        <v>0.973</v>
+        <v>0.524</v>
       </c>
       <c r="T127">
-        <v>0.986</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="128" spans="1:20">
@@ -5035,28 +4867,16 @@
         <v>22</v>
       </c>
       <c r="C128" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E128">
-        <v>0.547</v>
-      </c>
-      <c r="F128">
-        <v>0.623</v>
-      </c>
-      <c r="G128">
-        <v>0.785</v>
-      </c>
-      <c r="H128">
-        <v>0.61</v>
+        <v>91</v>
       </c>
       <c r="I128">
-        <v>0.73</v>
+        <v>0.787</v>
       </c>
       <c r="J128">
-        <v>0.752</v>
+        <v>0.905</v>
       </c>
     </row>
     <row r="129" spans="1:20">
@@ -5067,28 +4887,34 @@
         <v>22</v>
       </c>
       <c r="C129" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>123</v>
+        <v>92</v>
+      </c>
+      <c r="I129">
+        <v>0.873</v>
+      </c>
+      <c r="J129">
+        <v>0.951</v>
       </c>
       <c r="O129">
-        <v>0.995</v>
+        <v>0.576</v>
       </c>
       <c r="P129">
-        <v>0.988</v>
+        <v>0.529</v>
       </c>
       <c r="Q129">
-        <v>0.99</v>
+        <v>0.539</v>
       </c>
       <c r="R129">
-        <v>0.993</v>
+        <v>0.59</v>
       </c>
       <c r="S129">
-        <v>0.991</v>
+        <v>0.518</v>
       </c>
       <c r="T129">
-        <v>0.994</v>
+        <v>0.526</v>
       </c>
     </row>
     <row r="130" spans="1:20">
@@ -5099,28 +4925,28 @@
         <v>22</v>
       </c>
       <c r="C130" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E130">
-        <v>0.92</v>
-      </c>
-      <c r="F130">
-        <v>0.977</v>
-      </c>
-      <c r="G130">
-        <v>0.989</v>
-      </c>
-      <c r="H130">
-        <v>0.96</v>
-      </c>
-      <c r="I130">
-        <v>0.974</v>
-      </c>
-      <c r="J130">
-        <v>0.978</v>
+        <v>110</v>
+      </c>
+      <c r="O130">
+        <v>0.586</v>
+      </c>
+      <c r="P130">
+        <v>0.66</v>
+      </c>
+      <c r="Q130">
+        <v>0.647</v>
+      </c>
+      <c r="R130">
+        <v>0.626</v>
+      </c>
+      <c r="S130">
+        <v>0.479</v>
+      </c>
+      <c r="T130">
+        <v>0.644</v>
       </c>
     </row>
     <row r="131" spans="1:20">
@@ -5131,28 +4957,16 @@
         <v>22</v>
       </c>
       <c r="C131" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="O131">
-        <v>0.836</v>
-      </c>
-      <c r="P131">
-        <v>0.745</v>
-      </c>
-      <c r="Q131">
-        <v>0.757</v>
-      </c>
-      <c r="R131">
-        <v>0.742</v>
-      </c>
-      <c r="S131">
-        <v>0.676</v>
-      </c>
-      <c r="T131">
-        <v>0.651</v>
+        <v>93</v>
+      </c>
+      <c r="I131">
+        <v>0.892</v>
+      </c>
+      <c r="J131">
+        <v>0.953</v>
       </c>
     </row>
     <row r="132" spans="1:20">
@@ -5163,28 +4977,34 @@
         <v>22</v>
       </c>
       <c r="C132" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E132">
-        <v>0.9320000000000001</v>
-      </c>
-      <c r="F132">
-        <v>0.979</v>
-      </c>
-      <c r="G132">
-        <v>0.986</v>
-      </c>
-      <c r="H132">
-        <v>0.886</v>
+        <v>94</v>
       </c>
       <c r="I132">
-        <v>0.973</v>
+        <v>1</v>
       </c>
       <c r="J132">
-        <v>0.952</v>
+        <v>1</v>
+      </c>
+      <c r="O132">
+        <v>0.502</v>
+      </c>
+      <c r="P132">
+        <v>0.526</v>
+      </c>
+      <c r="Q132">
+        <v>0.548</v>
+      </c>
+      <c r="R132">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="S132">
+        <v>0.52</v>
+      </c>
+      <c r="T132">
+        <v>0.442</v>
       </c>
     </row>
     <row r="133" spans="1:20">
@@ -5195,28 +5015,25 @@
         <v>22</v>
       </c>
       <c r="C133" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E133">
-        <v>0.648</v>
-      </c>
-      <c r="F133">
-        <v>0.604</v>
-      </c>
-      <c r="G133">
-        <v>0.79</v>
-      </c>
-      <c r="H133">
-        <v>0.636</v>
+        <v>95</v>
       </c>
       <c r="I133">
-        <v>0.756</v>
+        <v>0.875</v>
       </c>
       <c r="J133">
-        <v>0.778</v>
+        <v>0.951</v>
+      </c>
+      <c r="R133">
+        <v>0.575</v>
+      </c>
+      <c r="S133">
+        <v>0.51</v>
+      </c>
+      <c r="T133">
+        <v>0.64</v>
       </c>
     </row>
     <row r="134" spans="1:20">
@@ -5227,43 +5044,16 @@
         <v>22</v>
       </c>
       <c r="C134" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
+      </c>
+      <c r="I134">
+        <v>0.9429999999999999</v>
       </c>
       <c r="J134">
-        <v>0.986</v>
-      </c>
-      <c r="K134">
-        <v>0.977</v>
-      </c>
-      <c r="L134">
-        <v>0.988</v>
-      </c>
-      <c r="M134">
-        <v>0.98</v>
-      </c>
-      <c r="N134">
-        <v>0.974</v>
-      </c>
-      <c r="O134">
-        <v>0.977</v>
-      </c>
-      <c r="P134">
-        <v>0.981</v>
-      </c>
-      <c r="Q134">
-        <v>0.989</v>
-      </c>
-      <c r="R134">
-        <v>0.989</v>
-      </c>
-      <c r="S134">
-        <v>0.987</v>
-      </c>
-      <c r="T134">
-        <v>0.992</v>
+        <v>0.822</v>
       </c>
     </row>
     <row r="135" spans="1:20">
@@ -5274,28 +5064,28 @@
         <v>22</v>
       </c>
       <c r="C135" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O135">
-        <v>0.5679999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="P135">
-        <v>0.527</v>
+        <v>0.529</v>
       </c>
       <c r="Q135">
         <v>0.537</v>
       </c>
       <c r="R135">
-        <v>0.542</v>
+        <v>0.556</v>
       </c>
       <c r="S135">
-        <v>0.514</v>
+        <v>0.511</v>
       </c>
       <c r="T135">
-        <v>0.393</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="136" spans="1:20">
@@ -5306,28 +5096,16 @@
         <v>22</v>
       </c>
       <c r="C136" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="O136">
-        <v>0.8149999999999999</v>
-      </c>
-      <c r="P136">
-        <v>0.74</v>
-      </c>
-      <c r="Q136">
-        <v>0.736</v>
-      </c>
-      <c r="R136">
-        <v>0.727</v>
-      </c>
-      <c r="S136">
-        <v>0.706</v>
-      </c>
-      <c r="T136">
-        <v>0.639</v>
+        <v>97</v>
+      </c>
+      <c r="I136">
+        <v>0.865</v>
+      </c>
+      <c r="J136">
+        <v>0.955</v>
       </c>
     </row>
     <row r="137" spans="1:20">
@@ -5338,22 +5116,28 @@
         <v>22</v>
       </c>
       <c r="C137" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G137">
-        <v>0.8179999999999999</v>
-      </c>
-      <c r="H137">
-        <v>0.701</v>
-      </c>
-      <c r="I137">
-        <v>0.57</v>
-      </c>
-      <c r="J137">
-        <v>0.719</v>
+        <v>124</v>
+      </c>
+      <c r="O137">
+        <v>0.709</v>
+      </c>
+      <c r="P137">
+        <v>0.761</v>
+      </c>
+      <c r="Q137">
+        <v>0.749</v>
+      </c>
+      <c r="R137">
+        <v>0.825</v>
+      </c>
+      <c r="S137">
+        <v>0.788</v>
+      </c>
+      <c r="T137">
+        <v>0.787</v>
       </c>
     </row>
     <row r="138" spans="1:20">
@@ -5364,43 +5148,16 @@
         <v>22</v>
       </c>
       <c r="C138" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E138">
-        <v>0.482</v>
-      </c>
-      <c r="F138">
-        <v>0.5649999999999999</v>
-      </c>
-      <c r="G138">
-        <v>0.794</v>
-      </c>
-      <c r="H138">
-        <v>0.59</v>
+        <v>98</v>
       </c>
       <c r="I138">
-        <v>0.758</v>
+        <v>0.865</v>
       </c>
       <c r="J138">
-        <v>0.721</v>
-      </c>
-      <c r="K138">
-        <v>0.706</v>
-      </c>
-      <c r="L138">
-        <v>0.775</v>
-      </c>
-      <c r="M138">
-        <v>0.822</v>
-      </c>
-      <c r="N138">
-        <v>0.767</v>
-      </c>
-      <c r="O138">
-        <v>0.753</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="139" spans="1:20">
@@ -5411,25 +5168,16 @@
         <v>22</v>
       </c>
       <c r="C139" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K139">
-        <v>0.981</v>
-      </c>
-      <c r="L139">
-        <v>0.977</v>
-      </c>
-      <c r="M139">
-        <v>0.964</v>
-      </c>
-      <c r="N139">
-        <v>0.963</v>
-      </c>
-      <c r="O139">
-        <v>0.958</v>
+        <v>99</v>
+      </c>
+      <c r="I139">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="J139">
+        <v>0.86</v>
       </c>
     </row>
     <row r="140" spans="1:20">
@@ -5440,31 +5188,28 @@
         <v>22</v>
       </c>
       <c r="C140" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J140">
-        <v>0.497</v>
+        <v>112</v>
       </c>
       <c r="O140">
-        <v>0.38</v>
+        <v>0.594</v>
       </c>
       <c r="P140">
-        <v>0.487</v>
+        <v>0.53</v>
       </c>
       <c r="Q140">
-        <v>0.48</v>
+        <v>0.517</v>
       </c>
       <c r="R140">
-        <v>0.485</v>
+        <v>0.592</v>
       </c>
       <c r="S140">
-        <v>0.505</v>
+        <v>0.492</v>
       </c>
       <c r="T140">
-        <v>0.541</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="141" spans="1:20">
@@ -5475,28 +5220,28 @@
         <v>22</v>
       </c>
       <c r="C141" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E141">
-        <v>0.955</v>
-      </c>
-      <c r="F141">
-        <v>0.966</v>
-      </c>
-      <c r="G141">
-        <v>0.985</v>
-      </c>
-      <c r="H141">
-        <v>0.96</v>
-      </c>
-      <c r="I141">
-        <v>0.949</v>
-      </c>
-      <c r="J141">
-        <v>0.982</v>
+        <v>125</v>
+      </c>
+      <c r="O141">
+        <v>1</v>
+      </c>
+      <c r="P141">
+        <v>0.997</v>
+      </c>
+      <c r="Q141">
+        <v>0.997</v>
+      </c>
+      <c r="R141">
+        <v>0.997</v>
+      </c>
+      <c r="S141">
+        <v>0.994</v>
+      </c>
+      <c r="T141">
+        <v>0.998</v>
       </c>
     </row>
     <row r="142" spans="1:20">
@@ -5507,43 +5252,28 @@
         <v>22</v>
       </c>
       <c r="C142" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J142">
-        <v>0.986</v>
-      </c>
-      <c r="K142">
-        <v>0.984</v>
-      </c>
-      <c r="L142">
-        <v>0.979</v>
-      </c>
-      <c r="M142">
-        <v>0.984</v>
-      </c>
-      <c r="N142">
-        <v>0.979</v>
+        <v>126</v>
       </c>
       <c r="O142">
-        <v>0.982</v>
+        <v>0.727</v>
       </c>
       <c r="P142">
-        <v>0.986</v>
+        <v>0.772</v>
       </c>
       <c r="Q142">
-        <v>0.989</v>
+        <v>0.758</v>
       </c>
       <c r="R142">
-        <v>0.989</v>
+        <v>0.827</v>
       </c>
       <c r="S142">
-        <v>0.989</v>
+        <v>0.781</v>
       </c>
       <c r="T142">
-        <v>0.996</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="143" spans="1:20">
@@ -5554,28 +5284,16 @@
         <v>22</v>
       </c>
       <c r="C143" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
+      </c>
+      <c r="I143">
+        <v>0.509</v>
       </c>
       <c r="J143">
-        <v>0.981</v>
-      </c>
-      <c r="K143">
-        <v>0.984</v>
-      </c>
-      <c r="L143">
-        <v>0.985</v>
-      </c>
-      <c r="M143">
-        <v>0.986</v>
-      </c>
-      <c r="N143">
-        <v>0.983</v>
-      </c>
-      <c r="O143">
-        <v>0.974</v>
+        <v>0.8139999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:20">
@@ -5583,31 +5301,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C144" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E144">
-        <v>0.979</v>
-      </c>
-      <c r="F144">
-        <v>0.9360000000000001</v>
-      </c>
-      <c r="G144">
-        <v>0.9389999999999999</v>
-      </c>
-      <c r="H144">
-        <v>0.912</v>
+        <v>101</v>
       </c>
       <c r="I144">
-        <v>0.976</v>
+        <v>0.783</v>
       </c>
       <c r="J144">
-        <v>0.959</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="145" spans="1:20">
@@ -5615,31 +5321,31 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C145" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O145">
-        <v>0.843</v>
+        <v>0.582</v>
       </c>
       <c r="P145">
-        <v>0.744</v>
+        <v>0.605</v>
       </c>
       <c r="Q145">
-        <v>0.752</v>
+        <v>0.632</v>
       </c>
       <c r="R145">
-        <v>0.724</v>
+        <v>0.599</v>
       </c>
       <c r="S145">
-        <v>0.695</v>
+        <v>0.515</v>
       </c>
       <c r="T145">
-        <v>0.634</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="146" spans="1:20">
@@ -5647,31 +5353,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C146" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="O146">
-        <v>0.845</v>
-      </c>
-      <c r="P146">
-        <v>0.746</v>
-      </c>
-      <c r="Q146">
-        <v>0.745</v>
-      </c>
-      <c r="R146">
-        <v>0.756</v>
-      </c>
-      <c r="S146">
-        <v>0.6919999999999999</v>
-      </c>
-      <c r="T146">
-        <v>0.637</v>
+        <v>102</v>
+      </c>
+      <c r="I146">
+        <v>0.805</v>
+      </c>
+      <c r="J146">
+        <v>0.963</v>
       </c>
     </row>
     <row r="147" spans="1:20">
@@ -5679,61 +5373,31 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C147" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E147">
-        <v>0.62</v>
-      </c>
-      <c r="F147">
+        <v>115</v>
+      </c>
+      <c r="O147">
         <v>0.586</v>
       </c>
-      <c r="G147">
-        <v>0.746</v>
-      </c>
-      <c r="H147">
-        <v>0.608</v>
-      </c>
-      <c r="I147">
-        <v>0.748</v>
-      </c>
-      <c r="J147">
-        <v>0.581</v>
-      </c>
-      <c r="K147">
-        <v>0.728</v>
-      </c>
-      <c r="L147">
-        <v>0.786</v>
-      </c>
-      <c r="M147">
-        <v>0.903</v>
-      </c>
-      <c r="N147">
-        <v>0.806</v>
-      </c>
-      <c r="O147">
-        <v>0.761</v>
-      </c>
       <c r="P147">
-        <v>0.742</v>
+        <v>0.523</v>
       </c>
       <c r="Q147">
-        <v>0.749</v>
+        <v>0.523</v>
       </c>
       <c r="R147">
-        <v>0.739</v>
+        <v>0.525</v>
       </c>
       <c r="S147">
-        <v>0.663</v>
+        <v>0.498</v>
       </c>
       <c r="T147">
-        <v>0.67</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="148" spans="1:20">
@@ -5744,22 +5408,28 @@
         <v>23</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G148">
-        <v>0.751</v>
-      </c>
-      <c r="H148">
-        <v>0.609</v>
-      </c>
-      <c r="I148">
-        <v>0.771</v>
-      </c>
-      <c r="J148">
-        <v>0.771</v>
+        <v>117</v>
+      </c>
+      <c r="O148">
+        <v>0.366</v>
+      </c>
+      <c r="P148">
+        <v>0.475</v>
+      </c>
+      <c r="Q148">
+        <v>0.473</v>
+      </c>
+      <c r="R148">
+        <v>0.466</v>
+      </c>
+      <c r="S148">
+        <v>0.483</v>
+      </c>
+      <c r="T148">
+        <v>0.509</v>
       </c>
     </row>
     <row r="149" spans="1:20">
@@ -5770,28 +5440,28 @@
         <v>23</v>
       </c>
       <c r="C149" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O149">
-        <v>0.727</v>
+        <v>0.37</v>
       </c>
       <c r="P149">
-        <v>0.776</v>
+        <v>0.474</v>
       </c>
       <c r="Q149">
-        <v>0.736</v>
+        <v>0.474</v>
       </c>
       <c r="R149">
-        <v>0.824</v>
+        <v>0.461</v>
       </c>
       <c r="S149">
-        <v>0.766</v>
+        <v>0.486</v>
       </c>
       <c r="T149">
-        <v>0.824</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="150" spans="1:20">
@@ -5802,43 +5472,43 @@
         <v>23</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E150">
-        <v>0.576</v>
-      </c>
-      <c r="F150">
-        <v>0.584</v>
-      </c>
-      <c r="G150">
-        <v>0.728</v>
-      </c>
-      <c r="H150">
-        <v>0.606</v>
-      </c>
-      <c r="I150">
-        <v>0.763</v>
+        <v>77</v>
       </c>
       <c r="J150">
-        <v>0.738</v>
+        <v>0.445</v>
       </c>
       <c r="K150">
-        <v>0.727</v>
+        <v>0.598</v>
       </c>
       <c r="L150">
-        <v>0.796</v>
+        <v>0.659</v>
       </c>
       <c r="M150">
-        <v>0.8090000000000001</v>
+        <v>0.855</v>
       </c>
       <c r="N150">
-        <v>0.757</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="O150">
-        <v>0.749</v>
+        <v>0.53</v>
+      </c>
+      <c r="P150">
+        <v>0.476</v>
+      </c>
+      <c r="Q150">
+        <v>0.458</v>
+      </c>
+      <c r="R150">
+        <v>0.488</v>
+      </c>
+      <c r="S150">
+        <v>0.548</v>
+      </c>
+      <c r="T150">
+        <v>0.598</v>
       </c>
     </row>
     <row r="151" spans="1:20">
@@ -5849,40 +5519,28 @@
         <v>23</v>
       </c>
       <c r="C151" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K151">
-        <v>0.532</v>
-      </c>
-      <c r="L151">
+        <v>119</v>
+      </c>
+      <c r="O151">
+        <v>0.572</v>
+      </c>
+      <c r="P151">
+        <v>0.617</v>
+      </c>
+      <c r="Q151">
         <v>0.631</v>
       </c>
-      <c r="M151">
-        <v>0.65</v>
-      </c>
-      <c r="N151">
-        <v>0.548</v>
-      </c>
-      <c r="O151">
-        <v>0.578</v>
-      </c>
-      <c r="P151">
-        <v>0.531</v>
-      </c>
-      <c r="Q151">
-        <v>0.537</v>
-      </c>
       <c r="R151">
-        <v>0.488</v>
+        <v>0.609</v>
       </c>
       <c r="S151">
-        <v>0.489</v>
+        <v>0.517</v>
       </c>
       <c r="T151">
-        <v>0.632</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:20">
@@ -5893,28 +5551,28 @@
         <v>23</v>
       </c>
       <c r="C152" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>120</v>
+        <v>79</v>
+      </c>
+      <c r="J152">
+        <v>0.511</v>
+      </c>
+      <c r="K152">
+        <v>0.581</v>
+      </c>
+      <c r="L152">
+        <v>0.672</v>
+      </c>
+      <c r="M152">
+        <v>0.864</v>
+      </c>
+      <c r="N152">
+        <v>0.674</v>
       </c>
       <c r="O152">
-        <v>0.989</v>
-      </c>
-      <c r="P152">
-        <v>0.985</v>
-      </c>
-      <c r="Q152">
-        <v>0.972</v>
-      </c>
-      <c r="R152">
-        <v>0.982</v>
-      </c>
-      <c r="S152">
-        <v>0.962</v>
-      </c>
-      <c r="T152">
-        <v>0.978</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="153" spans="1:20">
@@ -5925,43 +5583,40 @@
         <v>23</v>
       </c>
       <c r="C153" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E153">
+        <v>103</v>
+      </c>
+      <c r="K153">
+        <v>0.979</v>
+      </c>
+      <c r="L153">
         <v>0.982</v>
       </c>
-      <c r="F153">
-        <v>0.9320000000000001</v>
-      </c>
-      <c r="G153">
-        <v>0.922</v>
-      </c>
-      <c r="H153">
-        <v>0.929</v>
-      </c>
-      <c r="I153">
-        <v>0.944</v>
-      </c>
-      <c r="J153">
-        <v>0.962</v>
-      </c>
-      <c r="K153">
-        <v>0.966</v>
-      </c>
-      <c r="L153">
-        <v>0.965</v>
-      </c>
       <c r="M153">
-        <v>0.964</v>
+        <v>0.917</v>
       </c>
       <c r="N153">
-        <v>0.9340000000000001</v>
+        <v>0.915</v>
       </c>
       <c r="O153">
-        <v>0.967</v>
+        <v>0.896</v>
+      </c>
+      <c r="P153">
+        <v>0.994</v>
+      </c>
+      <c r="Q153">
+        <v>0.991</v>
+      </c>
+      <c r="R153">
+        <v>0.99</v>
+      </c>
+      <c r="S153">
+        <v>0.988</v>
+      </c>
+      <c r="T153">
+        <v>0.997</v>
       </c>
     </row>
     <row r="154" spans="1:20">
@@ -5972,43 +5627,28 @@
         <v>23</v>
       </c>
       <c r="C154" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E154">
-        <v>0.584</v>
-      </c>
-      <c r="F154">
-        <v>0.573</v>
-      </c>
-      <c r="G154">
-        <v>0.763</v>
-      </c>
-      <c r="H154">
-        <v>0.61</v>
-      </c>
-      <c r="I154">
-        <v>0.755</v>
-      </c>
-      <c r="J154">
-        <v>0.753</v>
-      </c>
-      <c r="K154">
-        <v>0.711</v>
-      </c>
-      <c r="L154">
-        <v>0.795</v>
-      </c>
-      <c r="M154">
-        <v>0.8070000000000001</v>
-      </c>
-      <c r="N154">
-        <v>0.751</v>
+        <v>120</v>
       </c>
       <c r="O154">
-        <v>0.76</v>
+        <v>0.406</v>
+      </c>
+      <c r="P154">
+        <v>0.52</v>
+      </c>
+      <c r="Q154">
+        <v>0.538</v>
+      </c>
+      <c r="R154">
+        <v>0.521</v>
+      </c>
+      <c r="S154">
+        <v>0.458</v>
+      </c>
+      <c r="T154">
+        <v>0.659</v>
       </c>
     </row>
     <row r="155" spans="1:20">
@@ -6019,28 +5659,28 @@
         <v>23</v>
       </c>
       <c r="C155" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="J155">
-        <v>0.425</v>
+        <v>0.432</v>
       </c>
       <c r="K155">
-        <v>0.574</v>
+        <v>0.584</v>
       </c>
       <c r="L155">
-        <v>0.711</v>
+        <v>0.68</v>
       </c>
       <c r="M155">
-        <v>0.838</v>
+        <v>0.76</v>
       </c>
       <c r="N155">
-        <v>0.86</v>
+        <v>0.649</v>
       </c>
       <c r="O155">
-        <v>0.891</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="156" spans="1:20">
@@ -6051,43 +5691,28 @@
         <v>23</v>
       </c>
       <c r="C156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E156">
-        <v>0.981</v>
-      </c>
-      <c r="F156">
-        <v>0.827</v>
-      </c>
-      <c r="G156">
-        <v>0.9370000000000001</v>
-      </c>
-      <c r="H156">
-        <v>0.904</v>
-      </c>
-      <c r="I156">
-        <v>0.9419999999999999</v>
+        <v>81</v>
       </c>
       <c r="J156">
-        <v>0.965</v>
+        <v>0.511</v>
       </c>
       <c r="K156">
-        <v>0.974</v>
+        <v>0.579</v>
       </c>
       <c r="L156">
-        <v>0.973</v>
+        <v>0.666</v>
       </c>
       <c r="M156">
-        <v>0.965</v>
+        <v>0.84</v>
       </c>
       <c r="N156">
-        <v>0.96</v>
+        <v>0.653</v>
       </c>
       <c r="O156">
-        <v>0.969</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="157" spans="1:20">
@@ -6098,13 +5723,28 @@
         <v>23</v>
       </c>
       <c r="C157" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J157">
-        <v>0.655</v>
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>0.978</v>
+      </c>
+      <c r="L157">
+        <v>0.979</v>
+      </c>
+      <c r="M157">
+        <v>0.912</v>
+      </c>
+      <c r="N157">
+        <v>0.78</v>
+      </c>
+      <c r="O157">
+        <v>0.707</v>
       </c>
     </row>
     <row r="158" spans="1:20">
@@ -6115,19 +5755,28 @@
         <v>23</v>
       </c>
       <c r="C158" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
+      </c>
+      <c r="J158">
+        <v>0.416</v>
+      </c>
+      <c r="K158">
+        <v>0.616</v>
+      </c>
+      <c r="L158">
+        <v>0.656</v>
       </c>
       <c r="M158">
-        <v>0.9</v>
+        <v>0.767</v>
       </c>
       <c r="N158">
-        <v>0.764</v>
+        <v>0.636</v>
       </c>
       <c r="O158">
-        <v>0.786</v>
+        <v>0.681</v>
       </c>
     </row>
     <row r="159" spans="1:20">
@@ -6138,25 +5787,13 @@
         <v>23</v>
       </c>
       <c r="C159" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F159">
-        <v>0.585</v>
-      </c>
-      <c r="G159">
-        <v>0.744</v>
-      </c>
-      <c r="H159">
-        <v>0.622</v>
-      </c>
-      <c r="I159">
-        <v>0.798</v>
+        <v>105</v>
       </c>
       <c r="J159">
-        <v>0.765</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
     <row r="160" spans="1:20">
@@ -6167,28 +5804,19 @@
         <v>23</v>
       </c>
       <c r="C160" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E160">
-        <v>0.974</v>
-      </c>
-      <c r="F160">
-        <v>0.908</v>
-      </c>
-      <c r="G160">
-        <v>0.96</v>
-      </c>
-      <c r="H160">
-        <v>0.923</v>
-      </c>
-      <c r="I160">
-        <v>0.985</v>
-      </c>
-      <c r="J160">
-        <v>0.9409999999999999</v>
+        <v>106</v>
+      </c>
+      <c r="M160">
+        <v>0.837</v>
+      </c>
+      <c r="N160">
+        <v>0.674</v>
+      </c>
+      <c r="O160">
+        <v>0.611</v>
       </c>
     </row>
     <row r="161" spans="1:20">
@@ -6205,22 +5833,22 @@
         <v>121</v>
       </c>
       <c r="O161">
-        <v>0.841</v>
+        <v>0.375</v>
       </c>
       <c r="P161">
-        <v>0.745</v>
+        <v>0.473</v>
       </c>
       <c r="Q161">
-        <v>0.749</v>
+        <v>0.459</v>
       </c>
       <c r="R161">
-        <v>0.752</v>
+        <v>0.485</v>
       </c>
       <c r="S161">
-        <v>0.7</v>
+        <v>0.482</v>
       </c>
       <c r="T161">
-        <v>0.663</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="162" spans="1:20">
@@ -6236,53 +5864,38 @@
       <c r="D162" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E162">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="F162">
-        <v>0.606</v>
-      </c>
-      <c r="G162">
-        <v>0.745</v>
-      </c>
-      <c r="H162">
-        <v>0.603</v>
-      </c>
-      <c r="I162">
-        <v>0.766</v>
-      </c>
       <c r="J162">
-        <v>0.747</v>
+        <v>0.505</v>
       </c>
       <c r="K162">
-        <v>0.733</v>
+        <v>0.585</v>
       </c>
       <c r="L162">
-        <v>0.8080000000000001</v>
+        <v>0.657</v>
       </c>
       <c r="M162">
-        <v>0.8070000000000001</v>
+        <v>0.842</v>
       </c>
       <c r="N162">
-        <v>0.764</v>
+        <v>0.654</v>
       </c>
       <c r="O162">
-        <v>0.771</v>
+        <v>0.553</v>
       </c>
       <c r="P162">
-        <v>0.758</v>
+        <v>0.47</v>
       </c>
       <c r="Q162">
-        <v>0.749</v>
+        <v>0.469</v>
       </c>
       <c r="R162">
-        <v>0.725</v>
+        <v>0.467</v>
       </c>
       <c r="S162">
-        <v>0.698</v>
+        <v>0.475</v>
       </c>
       <c r="T162">
-        <v>0.641</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="163" spans="1:20">
@@ -6293,13 +5906,34 @@
         <v>23</v>
       </c>
       <c r="C163" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E163">
-        <v>0.9350000000000001</v>
+        <v>107</v>
+      </c>
+      <c r="K163">
+        <v>0.598</v>
+      </c>
+      <c r="L163">
+        <v>0.68</v>
+      </c>
+      <c r="M163">
+        <v>0.859</v>
+      </c>
+      <c r="N163">
+        <v>0.666</v>
+      </c>
+      <c r="O163">
+        <v>0.544</v>
+      </c>
+      <c r="P163">
+        <v>0.474</v>
+      </c>
+      <c r="Q163">
+        <v>0.462</v>
+      </c>
+      <c r="R163">
+        <v>0.46</v>
       </c>
     </row>
     <row r="164" spans="1:20">
@@ -6310,28 +5944,28 @@
         <v>23</v>
       </c>
       <c r="C164" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E164">
-        <v>0.978</v>
-      </c>
-      <c r="F164">
-        <v>0.958</v>
-      </c>
-      <c r="G164">
-        <v>0.9379999999999999</v>
-      </c>
-      <c r="H164">
-        <v>0.93</v>
-      </c>
-      <c r="I164">
-        <v>0.987</v>
-      </c>
-      <c r="J164">
-        <v>0.959</v>
+        <v>122</v>
+      </c>
+      <c r="O164">
+        <v>0.468</v>
+      </c>
+      <c r="P164">
+        <v>0.523</v>
+      </c>
+      <c r="Q164">
+        <v>0.531</v>
+      </c>
+      <c r="R164">
+        <v>0.491</v>
+      </c>
+      <c r="S164">
+        <v>0.521</v>
+      </c>
+      <c r="T164">
+        <v>0.601</v>
       </c>
     </row>
     <row r="165" spans="1:20">
@@ -6342,34 +5976,19 @@
         <v>23</v>
       </c>
       <c r="C165" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="J165">
+        <v>0.514</v>
       </c>
       <c r="K165">
-        <v>0.726</v>
+        <v>0.573</v>
       </c>
       <c r="L165">
-        <v>0.782</v>
-      </c>
-      <c r="M165">
-        <v>0.8149999999999999</v>
-      </c>
-      <c r="N165">
-        <v>0.761</v>
-      </c>
-      <c r="O165">
-        <v>0.758</v>
-      </c>
-      <c r="P165">
-        <v>0.746</v>
-      </c>
-      <c r="Q165">
-        <v>0.748</v>
-      </c>
-      <c r="R165">
-        <v>0.763</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="166" spans="1:20">
@@ -6380,13 +5999,43 @@
         <v>23</v>
       </c>
       <c r="C166" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E166">
-        <v>0.61</v>
+        <v>90</v>
+      </c>
+      <c r="J166">
+        <v>0.491</v>
+      </c>
+      <c r="K166">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="L166">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="M166">
+        <v>0.848</v>
+      </c>
+      <c r="N166">
+        <v>0.669</v>
+      </c>
+      <c r="O166">
+        <v>0.554</v>
+      </c>
+      <c r="P166">
+        <v>0.465</v>
+      </c>
+      <c r="Q166">
+        <v>0.456</v>
+      </c>
+      <c r="R166">
+        <v>0.456</v>
+      </c>
+      <c r="S166">
+        <v>0.474</v>
+      </c>
+      <c r="T166">
+        <v>0.502</v>
       </c>
     </row>
     <row r="167" spans="1:20">
@@ -6397,28 +6046,43 @@
         <v>23</v>
       </c>
       <c r="C167" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E167">
-        <v>0.772</v>
-      </c>
-      <c r="F167">
-        <v>0.6840000000000001</v>
-      </c>
-      <c r="G167">
-        <v>0.8179999999999999</v>
-      </c>
-      <c r="H167">
-        <v>0.727</v>
-      </c>
-      <c r="I167">
-        <v>0.781</v>
+        <v>92</v>
       </c>
       <c r="J167">
-        <v>0.769</v>
+        <v>0.493</v>
+      </c>
+      <c r="K167">
+        <v>0.586</v>
+      </c>
+      <c r="L167">
+        <v>0.651</v>
+      </c>
+      <c r="M167">
+        <v>0.848</v>
+      </c>
+      <c r="N167">
+        <v>0.666</v>
+      </c>
+      <c r="O167">
+        <v>0.549</v>
+      </c>
+      <c r="P167">
+        <v>0.479</v>
+      </c>
+      <c r="Q167">
+        <v>0.485</v>
+      </c>
+      <c r="R167">
+        <v>0.487</v>
+      </c>
+      <c r="S167">
+        <v>0.497</v>
+      </c>
+      <c r="T167">
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:20">
@@ -6429,28 +6093,28 @@
         <v>23</v>
       </c>
       <c r="C168" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
+      </c>
+      <c r="J168">
+        <v>0.401</v>
+      </c>
+      <c r="K168">
+        <v>0.584</v>
+      </c>
+      <c r="L168">
+        <v>0.659</v>
+      </c>
+      <c r="M168">
+        <v>0.767</v>
+      </c>
+      <c r="N168">
+        <v>0.67</v>
       </c>
       <c r="O168">
-        <v>0.987</v>
-      </c>
-      <c r="P168">
-        <v>0.984</v>
-      </c>
-      <c r="Q168">
-        <v>0.976</v>
-      </c>
-      <c r="R168">
-        <v>0.981</v>
-      </c>
-      <c r="S168">
-        <v>0.945</v>
-      </c>
-      <c r="T168">
-        <v>0.96</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="169" spans="1:20">
@@ -6461,19 +6125,43 @@
         <v>23</v>
       </c>
       <c r="C169" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J169">
-        <v>0.663</v>
+        <v>1</v>
       </c>
       <c r="K169">
-        <v>0.706</v>
+        <v>0.961</v>
       </c>
       <c r="L169">
-        <v>0.782</v>
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>0.763</v>
+      </c>
+      <c r="N169">
+        <v>0.872</v>
+      </c>
+      <c r="O169">
+        <v>0.903</v>
+      </c>
+      <c r="P169">
+        <v>0.984</v>
+      </c>
+      <c r="Q169">
+        <v>0.979</v>
+      </c>
+      <c r="R169">
+        <v>0.987</v>
+      </c>
+      <c r="S169">
+        <v>0.969</v>
+      </c>
+      <c r="T169">
+        <v>0.922</v>
       </c>
     </row>
     <row r="170" spans="1:20">
@@ -6484,58 +6172,28 @@
         <v>23</v>
       </c>
       <c r="C170" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E170">
-        <v>0.607</v>
-      </c>
-      <c r="F170">
-        <v>0.583</v>
-      </c>
-      <c r="G170">
-        <v>0.747</v>
-      </c>
-      <c r="H170">
-        <v>0.593</v>
-      </c>
-      <c r="I170">
-        <v>0.751</v>
+        <v>111</v>
       </c>
       <c r="J170">
-        <v>0.746</v>
+        <v>0.525</v>
       </c>
       <c r="K170">
-        <v>0.727</v>
+        <v>0.48</v>
       </c>
       <c r="L170">
-        <v>0.783</v>
+        <v>0.46</v>
       </c>
       <c r="M170">
-        <v>0.821</v>
+        <v>0.59</v>
       </c>
       <c r="N170">
-        <v>0.776</v>
+        <v>0.58</v>
       </c>
       <c r="O170">
-        <v>0.795</v>
-      </c>
-      <c r="P170">
-        <v>0.775</v>
-      </c>
-      <c r="Q170">
-        <v>0.771</v>
-      </c>
-      <c r="R170">
-        <v>0.735</v>
-      </c>
-      <c r="S170">
-        <v>0.727</v>
-      </c>
-      <c r="T170">
-        <v>0.673</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="171" spans="1:20">
@@ -6546,28 +6204,28 @@
         <v>23</v>
       </c>
       <c r="C171" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E171">
-        <v>0.957</v>
-      </c>
-      <c r="F171">
-        <v>0.874</v>
-      </c>
-      <c r="G171">
-        <v>0.954</v>
-      </c>
-      <c r="H171">
-        <v>0.9429999999999999</v>
-      </c>
-      <c r="I171">
-        <v>0.958</v>
+        <v>93</v>
       </c>
       <c r="J171">
-        <v>0.976</v>
+        <v>0.505</v>
+      </c>
+      <c r="K171">
+        <v>0.577</v>
+      </c>
+      <c r="L171">
+        <v>0.662</v>
+      </c>
+      <c r="M171">
+        <v>0.861</v>
+      </c>
+      <c r="N171">
+        <v>0.676</v>
+      </c>
+      <c r="O171">
+        <v>0.593</v>
       </c>
     </row>
     <row r="172" spans="1:20">
@@ -6578,58 +6236,43 @@
         <v>23</v>
       </c>
       <c r="C172" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E172">
-        <v>0.615</v>
-      </c>
-      <c r="F172">
-        <v>0.577</v>
-      </c>
-      <c r="G172">
-        <v>0.756</v>
-      </c>
-      <c r="H172">
-        <v>0.601</v>
-      </c>
-      <c r="I172">
-        <v>0.771</v>
+        <v>94</v>
       </c>
       <c r="J172">
-        <v>0.757</v>
+        <v>0.377</v>
       </c>
       <c r="K172">
-        <v>0.731</v>
+        <v>0.544</v>
       </c>
       <c r="L172">
-        <v>0.79</v>
+        <v>0.658</v>
       </c>
       <c r="M172">
-        <v>0.8139999999999999</v>
+        <v>0.837</v>
       </c>
       <c r="N172">
-        <v>0.76</v>
+        <v>0.672</v>
       </c>
       <c r="O172">
-        <v>0.77</v>
+        <v>0.546</v>
       </c>
       <c r="P172">
-        <v>0.75</v>
+        <v>0.472</v>
       </c>
       <c r="Q172">
-        <v>0.741</v>
+        <v>0.502</v>
       </c>
       <c r="R172">
-        <v>0.747</v>
+        <v>0.451</v>
       </c>
       <c r="S172">
-        <v>0.717</v>
+        <v>0.48</v>
       </c>
       <c r="T172">
-        <v>0.67</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="173" spans="1:20">
@@ -6640,28 +6283,37 @@
         <v>23</v>
       </c>
       <c r="C173" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="J173">
-        <v>0.967</v>
+        <v>0.47</v>
       </c>
       <c r="K173">
-        <v>0.974</v>
+        <v>0.594</v>
       </c>
       <c r="L173">
-        <v>0.978</v>
+        <v>0.658</v>
       </c>
       <c r="M173">
-        <v>0.974</v>
+        <v>0.872</v>
       </c>
       <c r="N173">
-        <v>0.962</v>
+        <v>0.522</v>
       </c>
       <c r="O173">
-        <v>0.966</v>
+        <v>0.616</v>
+      </c>
+      <c r="R173">
+        <v>0.445</v>
+      </c>
+      <c r="S173">
+        <v>0.472</v>
+      </c>
+      <c r="T173">
+        <v>0.51</v>
       </c>
     </row>
     <row r="174" spans="1:20">
@@ -6672,43 +6324,28 @@
         <v>23</v>
       </c>
       <c r="C174" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J174">
-        <v>0.306</v>
-      </c>
-      <c r="K174">
-        <v>0.754</v>
-      </c>
-      <c r="L174">
-        <v>0.744</v>
-      </c>
-      <c r="M174">
-        <v>0.503</v>
-      </c>
-      <c r="N174">
-        <v>0.68</v>
+        <v>123</v>
       </c>
       <c r="O174">
-        <v>0.5600000000000001</v>
+        <v>0.373</v>
       </c>
       <c r="P174">
-        <v>0.538</v>
+        <v>0.475</v>
       </c>
       <c r="Q174">
-        <v>0.542</v>
+        <v>0.471</v>
       </c>
       <c r="R174">
-        <v>0.539</v>
+        <v>0.464</v>
       </c>
       <c r="S174">
-        <v>0.433</v>
+        <v>0.483</v>
       </c>
       <c r="T174">
-        <v>0.652</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="175" spans="1:20">
@@ -6719,28 +6356,13 @@
         <v>23</v>
       </c>
       <c r="C175" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="J175">
-        <v>0.62</v>
-      </c>
-      <c r="K175">
-        <v>0.456</v>
-      </c>
-      <c r="L175">
-        <v>0.491</v>
-      </c>
-      <c r="M175">
-        <v>0.552</v>
-      </c>
-      <c r="N175">
-        <v>0.499</v>
-      </c>
-      <c r="O175">
-        <v>0.545</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="176" spans="1:20">
@@ -6751,43 +6373,28 @@
         <v>23</v>
       </c>
       <c r="C176" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E176">
-        <v>0.621</v>
-      </c>
-      <c r="F176">
-        <v>0.586</v>
-      </c>
-      <c r="G176">
-        <v>0.756</v>
-      </c>
-      <c r="H176">
-        <v>0.612</v>
-      </c>
-      <c r="I176">
-        <v>0.766</v>
-      </c>
-      <c r="J176">
-        <v>0.734</v>
-      </c>
-      <c r="K176">
-        <v>0.706</v>
-      </c>
-      <c r="L176">
-        <v>0.786</v>
-      </c>
-      <c r="M176">
-        <v>0.822</v>
-      </c>
-      <c r="N176">
-        <v>0.761</v>
+        <v>124</v>
       </c>
       <c r="O176">
-        <v>0.754</v>
+        <v>0.44</v>
+      </c>
+      <c r="P176">
+        <v>0.514</v>
+      </c>
+      <c r="Q176">
+        <v>0.534</v>
+      </c>
+      <c r="R176">
+        <v>0.523</v>
+      </c>
+      <c r="S176">
+        <v>0.459</v>
+      </c>
+      <c r="T176">
+        <v>0.634</v>
       </c>
     </row>
     <row r="177" spans="1:20">
@@ -6798,46 +6405,43 @@
         <v>23</v>
       </c>
       <c r="C177" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I177">
-        <v>0.829</v>
+        <v>112</v>
       </c>
       <c r="J177">
-        <v>0.794</v>
+        <v>0.382</v>
       </c>
       <c r="K177">
-        <v>0.701</v>
+        <v>0.602</v>
       </c>
       <c r="L177">
-        <v>0.797</v>
+        <v>0.614</v>
       </c>
       <c r="M177">
-        <v>0.805</v>
+        <v>0.884</v>
       </c>
       <c r="N177">
-        <v>0.726</v>
+        <v>0.668</v>
       </c>
       <c r="O177">
-        <v>0.753</v>
+        <v>0.518</v>
       </c>
       <c r="P177">
-        <v>0.737</v>
+        <v>0.468</v>
       </c>
       <c r="Q177">
-        <v>0.749</v>
+        <v>0.462</v>
       </c>
       <c r="R177">
-        <v>0.747</v>
+        <v>0.498</v>
       </c>
       <c r="S177">
-        <v>0.709</v>
+        <v>0.498</v>
       </c>
       <c r="T177">
-        <v>0.654</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="178" spans="1:20">
@@ -6848,52 +6452,28 @@
         <v>23</v>
       </c>
       <c r="C178" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E178">
-        <v>0.594</v>
-      </c>
-      <c r="F178">
-        <v>0.5679999999999999</v>
-      </c>
-      <c r="G178">
-        <v>0.748</v>
-      </c>
-      <c r="H178">
-        <v>0.586</v>
-      </c>
-      <c r="I178">
-        <v>0.762</v>
-      </c>
-      <c r="J178">
-        <v>0.738</v>
-      </c>
-      <c r="K178">
-        <v>0.725</v>
-      </c>
-      <c r="L178">
-        <v>0.806</v>
-      </c>
-      <c r="M178">
-        <v>0.796</v>
-      </c>
-      <c r="N178">
-        <v>0.698</v>
+        <v>125</v>
       </c>
       <c r="O178">
-        <v>0.802</v>
+        <v>0.59</v>
+      </c>
+      <c r="P178">
+        <v>0.63</v>
+      </c>
+      <c r="Q178">
+        <v>0.635</v>
       </c>
       <c r="R178">
-        <v>0.783</v>
+        <v>0.59</v>
       </c>
       <c r="S178">
-        <v>0.6929999999999999</v>
+        <v>0.504</v>
       </c>
       <c r="T178">
-        <v>0.74</v>
+        <v>0.6889999999999999</v>
       </c>
     </row>
     <row r="179" spans="1:20">
@@ -6904,28 +6484,28 @@
         <v>23</v>
       </c>
       <c r="C179" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E179">
-        <v>0.985</v>
-      </c>
-      <c r="F179">
-        <v>0.997</v>
-      </c>
-      <c r="G179">
-        <v>0.957</v>
-      </c>
-      <c r="H179">
-        <v>0.922</v>
-      </c>
-      <c r="I179">
-        <v>0.976</v>
-      </c>
-      <c r="J179">
-        <v>0.965</v>
+        <v>126</v>
+      </c>
+      <c r="O179">
+        <v>0.465</v>
+      </c>
+      <c r="P179">
+        <v>0.53</v>
+      </c>
+      <c r="Q179">
+        <v>0.553</v>
+      </c>
+      <c r="R179">
+        <v>0.521</v>
+      </c>
+      <c r="S179">
+        <v>0.484</v>
+      </c>
+      <c r="T179">
+        <v>0.652</v>
       </c>
     </row>
     <row r="180" spans="1:20">
@@ -6936,28 +6516,28 @@
         <v>23</v>
       </c>
       <c r="C180" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
+      </c>
+      <c r="J180">
+        <v>0.407</v>
+      </c>
+      <c r="K180">
+        <v>0.578</v>
+      </c>
+      <c r="L180">
+        <v>0.71</v>
+      </c>
+      <c r="M180">
+        <v>0.757</v>
+      </c>
+      <c r="N180">
+        <v>0.623</v>
       </c>
       <c r="O180">
-        <v>0.838</v>
-      </c>
-      <c r="P180">
-        <v>0.743</v>
-      </c>
-      <c r="Q180">
-        <v>0.748</v>
-      </c>
-      <c r="R180">
-        <v>0.749</v>
-      </c>
-      <c r="S180">
-        <v>0.698</v>
-      </c>
-      <c r="T180">
-        <v>0.671</v>
+        <v>0.695</v>
       </c>
     </row>
     <row r="181" spans="1:20">
@@ -6968,28 +6548,25 @@
         <v>23</v>
       </c>
       <c r="C181" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E181">
-        <v>0.588</v>
-      </c>
-      <c r="F181">
-        <v>0.597</v>
-      </c>
-      <c r="G181">
-        <v>0.73</v>
-      </c>
-      <c r="H181">
-        <v>0.6</v>
-      </c>
-      <c r="I181">
-        <v>0.752</v>
-      </c>
-      <c r="J181">
-        <v>0.783</v>
+        <v>113</v>
+      </c>
+      <c r="K181">
+        <v>0.587</v>
+      </c>
+      <c r="L181">
+        <v>0.649</v>
+      </c>
+      <c r="M181">
+        <v>0.84</v>
+      </c>
+      <c r="N181">
+        <v>0.672</v>
+      </c>
+      <c r="O181">
+        <v>0.611</v>
       </c>
     </row>
     <row r="182" spans="1:20">
@@ -7000,28 +6577,31 @@
         <v>23</v>
       </c>
       <c r="C182" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
       </c>
       <c r="O182">
+        <v>1</v>
+      </c>
+      <c r="P182">
+        <v>0.991</v>
+      </c>
+      <c r="Q182">
         <v>0.988</v>
       </c>
-      <c r="P182">
-        <v>0.985</v>
-      </c>
-      <c r="Q182">
-        <v>0.976</v>
-      </c>
       <c r="R182">
-        <v>0.986</v>
+        <v>0.991</v>
       </c>
       <c r="S182">
-        <v>0.961</v>
+        <v>0.99</v>
       </c>
       <c r="T182">
-        <v>0.977</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="183" spans="1:20">
@@ -7032,28 +6612,43 @@
         <v>23</v>
       </c>
       <c r="C183" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E183">
-        <v>0.65</v>
-      </c>
-      <c r="F183">
-        <v>0.58</v>
-      </c>
-      <c r="G183">
-        <v>0.743</v>
-      </c>
-      <c r="H183">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="I183">
-        <v>0.763</v>
+        <v>115</v>
       </c>
       <c r="J183">
-        <v>0.798</v>
+        <v>0.516</v>
+      </c>
+      <c r="K183">
+        <v>0.583</v>
+      </c>
+      <c r="L183">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="M183">
+        <v>0.908</v>
+      </c>
+      <c r="N183">
+        <v>0.661</v>
+      </c>
+      <c r="O183">
+        <v>0.555</v>
+      </c>
+      <c r="P183">
+        <v>0.502</v>
+      </c>
+      <c r="Q183">
+        <v>0.453</v>
+      </c>
+      <c r="R183">
+        <v>0.465</v>
+      </c>
+      <c r="S183">
+        <v>0.475</v>
+      </c>
+      <c r="T183">
+        <v>0.503</v>
       </c>
     </row>
     <row r="184" spans="1:20">
@@ -7064,28 +6659,28 @@
         <v>23</v>
       </c>
       <c r="C184" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E184">
-        <v>0.981</v>
-      </c>
-      <c r="F184">
-        <v>0.923</v>
-      </c>
-      <c r="G184">
-        <v>0.9370000000000001</v>
-      </c>
-      <c r="H184">
-        <v>0.9340000000000001</v>
-      </c>
-      <c r="I184">
-        <v>0.961</v>
+        <v>116</v>
       </c>
       <c r="J184">
-        <v>0.96</v>
+        <v>0.493</v>
+      </c>
+      <c r="K184">
+        <v>0.579</v>
+      </c>
+      <c r="L184">
+        <v>0.7</v>
+      </c>
+      <c r="M184">
+        <v>0.754</v>
+      </c>
+      <c r="N184">
+        <v>0.704</v>
+      </c>
+      <c r="O184">
+        <v>0.613</v>
       </c>
     </row>
     <row r="185" spans="1:20">
@@ -7093,46 +6688,31 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C185" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>112</v>
+        <v>76</v>
+      </c>
+      <c r="E185">
+        <v>0.979</v>
+      </c>
+      <c r="F185">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="G185">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="H185">
+        <v>0.912</v>
+      </c>
+      <c r="I185">
+        <v>0.976</v>
       </c>
       <c r="J185">
-        <v>0.708</v>
-      </c>
-      <c r="K185">
-        <v>0.73</v>
-      </c>
-      <c r="L185">
-        <v>0.804</v>
-      </c>
-      <c r="M185">
-        <v>0.774</v>
-      </c>
-      <c r="N185">
-        <v>0.751</v>
-      </c>
-      <c r="O185">
-        <v>0.758</v>
-      </c>
-      <c r="P185">
-        <v>0.697</v>
-      </c>
-      <c r="Q185">
-        <v>0.736</v>
-      </c>
-      <c r="R185">
-        <v>0.764</v>
-      </c>
-      <c r="S185">
-        <v>0.715</v>
-      </c>
-      <c r="T185">
-        <v>0.637</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="186" spans="1:20">
@@ -7140,31 +6720,31 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C186" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="O186">
-        <v>0.729</v>
+        <v>0.843</v>
       </c>
       <c r="P186">
-        <v>0.747</v>
+        <v>0.744</v>
       </c>
       <c r="Q186">
-        <v>0.77</v>
+        <v>0.752</v>
       </c>
       <c r="R186">
-        <v>0.8169999999999999</v>
+        <v>0.724</v>
       </c>
       <c r="S186">
-        <v>0.778</v>
+        <v>0.695</v>
       </c>
       <c r="T186">
-        <v>0.763</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="187" spans="1:20">
@@ -7172,31 +6752,31 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C187" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="O187">
-        <v>0.982</v>
+        <v>0.845</v>
       </c>
       <c r="P187">
-        <v>0.976</v>
+        <v>0.746</v>
       </c>
       <c r="Q187">
-        <v>0.969</v>
+        <v>0.745</v>
       </c>
       <c r="R187">
-        <v>0.978</v>
+        <v>0.756</v>
       </c>
       <c r="S187">
-        <v>0.956</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="T187">
-        <v>0.954</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="188" spans="1:20">
@@ -7204,25 +6784,61 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C188" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
+      </c>
+      <c r="E188">
+        <v>0.62</v>
+      </c>
+      <c r="F188">
+        <v>0.586</v>
       </c>
       <c r="G188">
-        <v>0.787</v>
+        <v>0.746</v>
       </c>
       <c r="H188">
-        <v>0.737</v>
+        <v>0.608</v>
       </c>
       <c r="I188">
-        <v>0.647</v>
+        <v>0.748</v>
       </c>
       <c r="J188">
+        <v>0.581</v>
+      </c>
+      <c r="K188">
+        <v>0.728</v>
+      </c>
+      <c r="L188">
+        <v>0.786</v>
+      </c>
+      <c r="M188">
+        <v>0.903</v>
+      </c>
+      <c r="N188">
+        <v>0.806</v>
+      </c>
+      <c r="O188">
         <v>0.761</v>
+      </c>
+      <c r="P188">
+        <v>0.742</v>
+      </c>
+      <c r="Q188">
+        <v>0.749</v>
+      </c>
+      <c r="R188">
+        <v>0.739</v>
+      </c>
+      <c r="S188">
+        <v>0.663</v>
+      </c>
+      <c r="T188">
+        <v>0.67</v>
       </c>
     </row>
     <row r="189" spans="1:20">
@@ -7230,46 +6846,25 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C189" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E189">
-        <v>0.977</v>
-      </c>
-      <c r="F189">
-        <v>0.957</v>
+        <v>78</v>
       </c>
       <c r="G189">
-        <v>0.944</v>
+        <v>0.751</v>
       </c>
       <c r="H189">
-        <v>0.9419999999999999</v>
+        <v>0.609</v>
       </c>
       <c r="I189">
-        <v>0.966</v>
+        <v>0.771</v>
       </c>
       <c r="J189">
-        <v>0.971</v>
-      </c>
-      <c r="K189">
-        <v>0.96</v>
-      </c>
-      <c r="L189">
-        <v>0.969</v>
-      </c>
-      <c r="M189">
-        <v>0.97</v>
-      </c>
-      <c r="N189">
-        <v>0.955</v>
-      </c>
-      <c r="O189">
-        <v>0.958</v>
+        <v>0.771</v>
       </c>
     </row>
     <row r="190" spans="1:20">
@@ -7277,28 +6872,31 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C190" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K190">
-        <v>0.731</v>
-      </c>
-      <c r="L190">
-        <v>0.794</v>
-      </c>
-      <c r="M190">
-        <v>0.8149999999999999</v>
-      </c>
-      <c r="N190">
-        <v>0.774</v>
+        <v>119</v>
       </c>
       <c r="O190">
-        <v>0.787</v>
+        <v>0.727</v>
+      </c>
+      <c r="P190">
+        <v>0.776</v>
+      </c>
+      <c r="Q190">
+        <v>0.736</v>
+      </c>
+      <c r="R190">
+        <v>0.824</v>
+      </c>
+      <c r="S190">
+        <v>0.766</v>
+      </c>
+      <c r="T190">
+        <v>0.824</v>
       </c>
     </row>
     <row r="191" spans="1:20">
@@ -7306,34 +6904,46 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C191" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>114</v>
+        <v>79</v>
+      </c>
+      <c r="E191">
+        <v>0.576</v>
+      </c>
+      <c r="F191">
+        <v>0.584</v>
+      </c>
+      <c r="G191">
+        <v>0.728</v>
+      </c>
+      <c r="H191">
+        <v>0.606</v>
+      </c>
+      <c r="I191">
+        <v>0.763</v>
       </c>
       <c r="J191">
-        <v>0.433</v>
+        <v>0.738</v>
+      </c>
+      <c r="K191">
+        <v>0.727</v>
+      </c>
+      <c r="L191">
+        <v>0.796</v>
+      </c>
+      <c r="M191">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="N191">
+        <v>0.757</v>
       </c>
       <c r="O191">
-        <v>0.469</v>
-      </c>
-      <c r="P191">
-        <v>0.506</v>
-      </c>
-      <c r="Q191">
-        <v>0.539</v>
-      </c>
-      <c r="R191">
-        <v>0.519</v>
-      </c>
-      <c r="S191">
-        <v>0.484</v>
-      </c>
-      <c r="T191">
-        <v>0.654</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="192" spans="1:20">
@@ -7341,31 +6951,43 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C192" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E192">
-        <v>0.572</v>
-      </c>
-      <c r="F192">
-        <v>0.579</v>
-      </c>
-      <c r="G192">
-        <v>0.745</v>
-      </c>
-      <c r="H192">
-        <v>0.592</v>
-      </c>
-      <c r="I192">
-        <v>0.726</v>
-      </c>
-      <c r="J192">
-        <v>0.762</v>
+        <v>103</v>
+      </c>
+      <c r="K192">
+        <v>0.532</v>
+      </c>
+      <c r="L192">
+        <v>0.631</v>
+      </c>
+      <c r="M192">
+        <v>0.65</v>
+      </c>
+      <c r="N192">
+        <v>0.548</v>
+      </c>
+      <c r="O192">
+        <v>0.578</v>
+      </c>
+      <c r="P192">
+        <v>0.531</v>
+      </c>
+      <c r="Q192">
+        <v>0.537</v>
+      </c>
+      <c r="R192">
+        <v>0.488</v>
+      </c>
+      <c r="S192">
+        <v>0.489</v>
+      </c>
+      <c r="T192">
+        <v>0.632</v>
       </c>
     </row>
     <row r="193" spans="1:20">
@@ -7373,46 +6995,31 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C193" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J193">
-        <v>0.665</v>
-      </c>
-      <c r="K193">
-        <v>0.72</v>
-      </c>
-      <c r="L193">
-        <v>0.783</v>
-      </c>
-      <c r="M193">
-        <v>0.799</v>
-      </c>
-      <c r="N193">
-        <v>0.845</v>
+        <v>120</v>
       </c>
       <c r="O193">
-        <v>0.77</v>
+        <v>0.989</v>
       </c>
       <c r="P193">
-        <v>0.742</v>
+        <v>0.985</v>
       </c>
       <c r="Q193">
-        <v>0.743</v>
+        <v>0.972</v>
       </c>
       <c r="R193">
-        <v>0.72</v>
+        <v>0.982</v>
       </c>
       <c r="S193">
-        <v>0.697</v>
+        <v>0.962</v>
       </c>
       <c r="T193">
-        <v>0.573</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="194" spans="1:20">
@@ -7420,31 +7027,46 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C194" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>116</v>
+        <v>80</v>
+      </c>
+      <c r="E194">
+        <v>0.982</v>
+      </c>
+      <c r="F194">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="G194">
+        <v>0.922</v>
+      </c>
+      <c r="H194">
+        <v>0.929</v>
+      </c>
+      <c r="I194">
+        <v>0.944</v>
       </c>
       <c r="J194">
-        <v>0.673</v>
+        <v>0.962</v>
       </c>
       <c r="K194">
-        <v>0.723</v>
+        <v>0.966</v>
       </c>
       <c r="L194">
-        <v>0.847</v>
+        <v>0.965</v>
       </c>
       <c r="M194">
-        <v>0.835</v>
+        <v>0.964</v>
       </c>
       <c r="N194">
-        <v>0.886</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="O194">
-        <v>0.727</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="195" spans="1:20">
@@ -7455,16 +7077,43 @@
         <v>24</v>
       </c>
       <c r="C195" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
+      </c>
+      <c r="E195">
+        <v>0.584</v>
+      </c>
+      <c r="F195">
+        <v>0.573</v>
+      </c>
+      <c r="G195">
+        <v>0.763</v>
+      </c>
+      <c r="H195">
+        <v>0.61</v>
       </c>
       <c r="I195">
-        <v>0.915</v>
+        <v>0.755</v>
       </c>
       <c r="J195">
-        <v>0.796</v>
+        <v>0.753</v>
+      </c>
+      <c r="K195">
+        <v>0.711</v>
+      </c>
+      <c r="L195">
+        <v>0.795</v>
+      </c>
+      <c r="M195">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="N195">
+        <v>0.751</v>
+      </c>
+      <c r="O195">
+        <v>0.76</v>
       </c>
     </row>
     <row r="196" spans="1:20">
@@ -7475,28 +7124,28 @@
         <v>24</v>
       </c>
       <c r="C196" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
+      </c>
+      <c r="J196">
+        <v>0.425</v>
+      </c>
+      <c r="K196">
+        <v>0.574</v>
+      </c>
+      <c r="L196">
+        <v>0.711</v>
+      </c>
+      <c r="M196">
+        <v>0.838</v>
+      </c>
+      <c r="N196">
+        <v>0.86</v>
       </c>
       <c r="O196">
-        <v>0.582</v>
-      </c>
-      <c r="P196">
-        <v>0.528</v>
-      </c>
-      <c r="Q196">
-        <v>0.531</v>
-      </c>
-      <c r="R196">
-        <v>0.541</v>
-      </c>
-      <c r="S196">
-        <v>0.506</v>
-      </c>
-      <c r="T196">
-        <v>0.411</v>
+        <v>0.891</v>
       </c>
     </row>
     <row r="197" spans="1:20">
@@ -7507,28 +7156,43 @@
         <v>24</v>
       </c>
       <c r="C197" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>118</v>
+        <v>82</v>
+      </c>
+      <c r="E197">
+        <v>0.981</v>
+      </c>
+      <c r="F197">
+        <v>0.827</v>
+      </c>
+      <c r="G197">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="H197">
+        <v>0.904</v>
+      </c>
+      <c r="I197">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="J197">
+        <v>0.965</v>
+      </c>
+      <c r="K197">
+        <v>0.974</v>
+      </c>
+      <c r="L197">
+        <v>0.973</v>
+      </c>
+      <c r="M197">
+        <v>0.965</v>
+      </c>
+      <c r="N197">
+        <v>0.96</v>
       </c>
       <c r="O197">
-        <v>0.573</v>
-      </c>
-      <c r="P197">
-        <v>0.528</v>
-      </c>
-      <c r="Q197">
-        <v>0.534</v>
-      </c>
-      <c r="R197">
-        <v>0.57</v>
-      </c>
-      <c r="S197">
-        <v>0.506</v>
-      </c>
-      <c r="T197">
-        <v>0.411</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="198" spans="1:20">
@@ -7539,34 +7203,13 @@
         <v>24</v>
       </c>
       <c r="C198" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I198">
-        <v>0.913</v>
+        <v>105</v>
       </c>
       <c r="J198">
-        <v>0.917</v>
-      </c>
-      <c r="O198">
-        <v>0.582</v>
-      </c>
-      <c r="P198">
-        <v>0.5590000000000001</v>
-      </c>
-      <c r="Q198">
-        <v>0.527</v>
-      </c>
-      <c r="R198">
-        <v>0.585</v>
-      </c>
-      <c r="S198">
-        <v>0.436</v>
-      </c>
-      <c r="T198">
-        <v>0.624</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="199" spans="1:20">
@@ -7577,16 +7220,19 @@
         <v>24</v>
       </c>
       <c r="C199" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I199">
-        <v>0.885</v>
-      </c>
-      <c r="J199">
-        <v>0.973</v>
+        <v>106</v>
+      </c>
+      <c r="M199">
+        <v>0.9</v>
+      </c>
+      <c r="N199">
+        <v>0.764</v>
+      </c>
+      <c r="O199">
+        <v>0.786</v>
       </c>
     </row>
     <row r="200" spans="1:20">
@@ -7597,28 +7243,25 @@
         <v>24</v>
       </c>
       <c r="C200" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="O200">
-        <v>1</v>
-      </c>
-      <c r="P200">
-        <v>0.998</v>
-      </c>
-      <c r="Q200">
-        <v>0.997</v>
-      </c>
-      <c r="R200">
-        <v>0.997</v>
-      </c>
-      <c r="S200">
-        <v>0.995</v>
-      </c>
-      <c r="T200">
-        <v>0.998</v>
+        <v>83</v>
+      </c>
+      <c r="F200">
+        <v>0.585</v>
+      </c>
+      <c r="G200">
+        <v>0.744</v>
+      </c>
+      <c r="H200">
+        <v>0.622</v>
+      </c>
+      <c r="I200">
+        <v>0.798</v>
+      </c>
+      <c r="J200">
+        <v>0.765</v>
       </c>
     </row>
     <row r="201" spans="1:20">
@@ -7629,16 +7272,28 @@
         <v>24</v>
       </c>
       <c r="C201" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="E201">
+        <v>0.974</v>
+      </c>
+      <c r="F201">
+        <v>0.908</v>
+      </c>
+      <c r="G201">
+        <v>0.96</v>
+      </c>
+      <c r="H201">
+        <v>0.923</v>
       </c>
       <c r="I201">
-        <v>0.876</v>
+        <v>0.985</v>
       </c>
       <c r="J201">
-        <v>0.961</v>
+        <v>0.9409999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:20">
@@ -7649,28 +7304,28 @@
         <v>24</v>
       </c>
       <c r="C202" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="O202">
-        <v>0.573</v>
+        <v>0.841</v>
       </c>
       <c r="P202">
-        <v>0.616</v>
+        <v>0.745</v>
       </c>
       <c r="Q202">
-        <v>0.625</v>
+        <v>0.749</v>
       </c>
       <c r="R202">
-        <v>0.581</v>
+        <v>0.752</v>
       </c>
       <c r="S202">
-        <v>0.518</v>
+        <v>0.7</v>
       </c>
       <c r="T202">
-        <v>0.711</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="203" spans="1:20">
@@ -7681,28 +7336,58 @@
         <v>24</v>
       </c>
       <c r="C203" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>120</v>
+        <v>85</v>
+      </c>
+      <c r="E203">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F203">
+        <v>0.606</v>
+      </c>
+      <c r="G203">
+        <v>0.745</v>
+      </c>
+      <c r="H203">
+        <v>0.603</v>
+      </c>
+      <c r="I203">
+        <v>0.766</v>
+      </c>
+      <c r="J203">
+        <v>0.747</v>
+      </c>
+      <c r="K203">
+        <v>0.733</v>
+      </c>
+      <c r="L203">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="M203">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="N203">
+        <v>0.764</v>
       </c>
       <c r="O203">
-        <v>0.722</v>
+        <v>0.771</v>
       </c>
       <c r="P203">
-        <v>0.764</v>
+        <v>0.758</v>
       </c>
       <c r="Q203">
-        <v>0.753</v>
+        <v>0.749</v>
       </c>
       <c r="R203">
-        <v>0.823</v>
+        <v>0.725</v>
       </c>
       <c r="S203">
-        <v>0.772</v>
+        <v>0.698</v>
       </c>
       <c r="T203">
-        <v>0.794</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="204" spans="1:20">
@@ -7713,16 +7398,13 @@
         <v>24</v>
       </c>
       <c r="C204" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I204">
-        <v>0.832</v>
-      </c>
-      <c r="J204">
-        <v>0.8159999999999999</v>
+        <v>86</v>
+      </c>
+      <c r="E204">
+        <v>0.9350000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:20">
@@ -7733,16 +7415,28 @@
         <v>24</v>
       </c>
       <c r="C205" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
+      </c>
+      <c r="E205">
+        <v>0.978</v>
+      </c>
+      <c r="F205">
+        <v>0.958</v>
+      </c>
+      <c r="G205">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="H205">
+        <v>0.93</v>
       </c>
       <c r="I205">
-        <v>0.87</v>
+        <v>0.987</v>
       </c>
       <c r="J205">
-        <v>0.961</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="206" spans="1:20">
@@ -7753,16 +7447,34 @@
         <v>24</v>
       </c>
       <c r="C206" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I206">
-        <v>0.641</v>
-      </c>
-      <c r="J206">
-        <v>0.889</v>
+        <v>107</v>
+      </c>
+      <c r="K206">
+        <v>0.726</v>
+      </c>
+      <c r="L206">
+        <v>0.782</v>
+      </c>
+      <c r="M206">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="N206">
+        <v>0.761</v>
+      </c>
+      <c r="O206">
+        <v>0.758</v>
+      </c>
+      <c r="P206">
+        <v>0.746</v>
+      </c>
+      <c r="Q206">
+        <v>0.748</v>
+      </c>
+      <c r="R206">
+        <v>0.763</v>
       </c>
     </row>
     <row r="207" spans="1:20">
@@ -7773,16 +7485,13 @@
         <v>24</v>
       </c>
       <c r="C207" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I207">
-        <v>0.858</v>
-      </c>
-      <c r="J207">
-        <v>0.967</v>
+        <v>88</v>
+      </c>
+      <c r="E207">
+        <v>0.61</v>
       </c>
     </row>
     <row r="208" spans="1:20">
@@ -7793,16 +7502,28 @@
         <v>24</v>
       </c>
       <c r="C208" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
+      </c>
+      <c r="E208">
+        <v>0.772</v>
+      </c>
+      <c r="F208">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="G208">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="H208">
+        <v>0.727</v>
       </c>
       <c r="I208">
-        <v>0.93</v>
+        <v>0.781</v>
       </c>
       <c r="J208">
-        <v>0.6909999999999999</v>
+        <v>0.769</v>
       </c>
     </row>
     <row r="209" spans="1:20">
@@ -7813,28 +7534,28 @@
         <v>24</v>
       </c>
       <c r="C209" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O209">
-        <v>0.572</v>
+        <v>0.987</v>
       </c>
       <c r="P209">
-        <v>0.524</v>
+        <v>0.984</v>
       </c>
       <c r="Q209">
-        <v>0.534</v>
+        <v>0.976</v>
       </c>
       <c r="R209">
-        <v>0.604</v>
+        <v>0.981</v>
       </c>
       <c r="S209">
-        <v>0.513</v>
+        <v>0.945</v>
       </c>
       <c r="T209">
-        <v>0.606</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="210" spans="1:20">
@@ -7845,34 +7566,19 @@
         <v>24</v>
       </c>
       <c r="C210" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I210">
-        <v>0.876</v>
+        <v>108</v>
       </c>
       <c r="J210">
-        <v>0.947</v>
-      </c>
-      <c r="O210">
-        <v>0.581</v>
-      </c>
-      <c r="P210">
-        <v>0.536</v>
-      </c>
-      <c r="Q210">
-        <v>0.534</v>
-      </c>
-      <c r="R210">
-        <v>0.547</v>
-      </c>
-      <c r="S210">
-        <v>0.507</v>
-      </c>
-      <c r="T210">
-        <v>0.424</v>
+        <v>0.663</v>
+      </c>
+      <c r="K210">
+        <v>0.706</v>
+      </c>
+      <c r="L210">
+        <v>0.782</v>
       </c>
     </row>
     <row r="211" spans="1:20">
@@ -7883,16 +7589,58 @@
         <v>24</v>
       </c>
       <c r="C211" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="E211">
+        <v>0.607</v>
+      </c>
+      <c r="F211">
+        <v>0.583</v>
+      </c>
+      <c r="G211">
+        <v>0.747</v>
+      </c>
+      <c r="H211">
+        <v>0.593</v>
       </c>
       <c r="I211">
-        <v>0.949</v>
+        <v>0.751</v>
       </c>
       <c r="J211">
-        <v>0.803</v>
+        <v>0.746</v>
+      </c>
+      <c r="K211">
+        <v>0.727</v>
+      </c>
+      <c r="L211">
+        <v>0.783</v>
+      </c>
+      <c r="M211">
+        <v>0.821</v>
+      </c>
+      <c r="N211">
+        <v>0.776</v>
+      </c>
+      <c r="O211">
+        <v>0.795</v>
+      </c>
+      <c r="P211">
+        <v>0.775</v>
+      </c>
+      <c r="Q211">
+        <v>0.771</v>
+      </c>
+      <c r="R211">
+        <v>0.735</v>
+      </c>
+      <c r="S211">
+        <v>0.727</v>
+      </c>
+      <c r="T211">
+        <v>0.673</v>
       </c>
     </row>
     <row r="212" spans="1:20">
@@ -7903,22 +7651,28 @@
         <v>24</v>
       </c>
       <c r="C212" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="O212">
-        <v>0.5639999999999999</v>
-      </c>
-      <c r="P212">
-        <v>0.525</v>
-      </c>
-      <c r="Q212">
-        <v>0.523</v>
-      </c>
-      <c r="R212">
-        <v>0.604</v>
+        <v>91</v>
+      </c>
+      <c r="E212">
+        <v>0.957</v>
+      </c>
+      <c r="F212">
+        <v>0.874</v>
+      </c>
+      <c r="G212">
+        <v>0.954</v>
+      </c>
+      <c r="H212">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="I212">
+        <v>0.958</v>
+      </c>
+      <c r="J212">
+        <v>0.976</v>
       </c>
     </row>
     <row r="213" spans="1:20">
@@ -7929,16 +7683,58 @@
         <v>24</v>
       </c>
       <c r="C213" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="E213">
+        <v>0.615</v>
+      </c>
+      <c r="F213">
+        <v>0.577</v>
+      </c>
+      <c r="G213">
+        <v>0.756</v>
+      </c>
+      <c r="H213">
+        <v>0.601</v>
       </c>
       <c r="I213">
-        <v>0.631</v>
+        <v>0.771</v>
       </c>
       <c r="J213">
-        <v>0.826</v>
+        <v>0.757</v>
+      </c>
+      <c r="K213">
+        <v>0.731</v>
+      </c>
+      <c r="L213">
+        <v>0.79</v>
+      </c>
+      <c r="M213">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="N213">
+        <v>0.76</v>
+      </c>
+      <c r="O213">
+        <v>0.77</v>
+      </c>
+      <c r="P213">
+        <v>0.75</v>
+      </c>
+      <c r="Q213">
+        <v>0.741</v>
+      </c>
+      <c r="R213">
+        <v>0.747</v>
+      </c>
+      <c r="S213">
+        <v>0.717</v>
+      </c>
+      <c r="T213">
+        <v>0.67</v>
       </c>
     </row>
     <row r="214" spans="1:20">
@@ -7949,28 +7745,28 @@
         <v>24</v>
       </c>
       <c r="C214" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
+      </c>
+      <c r="J214">
+        <v>0.967</v>
+      </c>
+      <c r="K214">
+        <v>0.974</v>
+      </c>
+      <c r="L214">
+        <v>0.978</v>
+      </c>
+      <c r="M214">
+        <v>0.974</v>
+      </c>
+      <c r="N214">
+        <v>0.962</v>
       </c>
       <c r="O214">
-        <v>0.754</v>
-      </c>
-      <c r="P214">
-        <v>0.76</v>
-      </c>
-      <c r="Q214">
-        <v>0.745</v>
-      </c>
-      <c r="R214">
-        <v>0.806</v>
-      </c>
-      <c r="S214">
-        <v>0.738</v>
-      </c>
-      <c r="T214">
-        <v>0.836</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="215" spans="1:20">
@@ -7981,34 +7777,43 @@
         <v>24</v>
       </c>
       <c r="C215" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I215">
-        <v>0.869</v>
+        <v>110</v>
       </c>
       <c r="J215">
-        <v>0.966</v>
+        <v>0.306</v>
+      </c>
+      <c r="K215">
+        <v>0.754</v>
+      </c>
+      <c r="L215">
+        <v>0.744</v>
+      </c>
+      <c r="M215">
+        <v>0.503</v>
+      </c>
+      <c r="N215">
+        <v>0.68</v>
       </c>
       <c r="O215">
-        <v>0.5659999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P215">
-        <v>0.55</v>
+        <v>0.538</v>
       </c>
       <c r="Q215">
-        <v>0.538</v>
+        <v>0.542</v>
       </c>
       <c r="R215">
-        <v>0.548</v>
+        <v>0.539</v>
       </c>
       <c r="S215">
-        <v>0.524</v>
+        <v>0.433</v>
       </c>
       <c r="T215">
-        <v>0.43</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="216" spans="1:20">
@@ -8019,16 +7824,28 @@
         <v>24</v>
       </c>
       <c r="C216" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I216">
-        <v>0.787</v>
+        <v>111</v>
       </c>
       <c r="J216">
-        <v>0.905</v>
+        <v>0.62</v>
+      </c>
+      <c r="K216">
+        <v>0.456</v>
+      </c>
+      <c r="L216">
+        <v>0.491</v>
+      </c>
+      <c r="M216">
+        <v>0.552</v>
+      </c>
+      <c r="N216">
+        <v>0.499</v>
+      </c>
+      <c r="O216">
+        <v>0.545</v>
       </c>
     </row>
     <row r="217" spans="1:20">
@@ -8039,34 +7856,43 @@
         <v>24</v>
       </c>
       <c r="C217" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="E217">
+        <v>0.621</v>
+      </c>
+      <c r="F217">
+        <v>0.586</v>
+      </c>
+      <c r="G217">
+        <v>0.756</v>
+      </c>
+      <c r="H217">
+        <v>0.612</v>
       </c>
       <c r="I217">
-        <v>0.873</v>
+        <v>0.766</v>
       </c>
       <c r="J217">
-        <v>0.951</v>
+        <v>0.734</v>
+      </c>
+      <c r="K217">
+        <v>0.706</v>
+      </c>
+      <c r="L217">
+        <v>0.786</v>
+      </c>
+      <c r="M217">
+        <v>0.822</v>
+      </c>
+      <c r="N217">
+        <v>0.761</v>
       </c>
       <c r="O217">
-        <v>0.576</v>
-      </c>
-      <c r="P217">
-        <v>0.529</v>
-      </c>
-      <c r="Q217">
-        <v>0.539</v>
-      </c>
-      <c r="R217">
-        <v>0.59</v>
-      </c>
-      <c r="S217">
-        <v>0.518</v>
-      </c>
-      <c r="T217">
-        <v>0.526</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="218" spans="1:20">
@@ -8077,28 +7903,46 @@
         <v>24</v>
       </c>
       <c r="C218" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
+      </c>
+      <c r="I218">
+        <v>0.829</v>
+      </c>
+      <c r="J218">
+        <v>0.794</v>
+      </c>
+      <c r="K218">
+        <v>0.701</v>
+      </c>
+      <c r="L218">
+        <v>0.797</v>
+      </c>
+      <c r="M218">
+        <v>0.805</v>
+      </c>
+      <c r="N218">
+        <v>0.726</v>
       </c>
       <c r="O218">
-        <v>0.586</v>
+        <v>0.753</v>
       </c>
       <c r="P218">
-        <v>0.66</v>
+        <v>0.737</v>
       </c>
       <c r="Q218">
-        <v>0.647</v>
+        <v>0.749</v>
       </c>
       <c r="R218">
-        <v>0.626</v>
+        <v>0.747</v>
       </c>
       <c r="S218">
-        <v>0.479</v>
+        <v>0.709</v>
       </c>
       <c r="T218">
-        <v>0.644</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="219" spans="1:20">
@@ -8109,16 +7953,52 @@
         <v>24</v>
       </c>
       <c r="C219" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="E219">
+        <v>0.594</v>
+      </c>
+      <c r="F219">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="G219">
+        <v>0.748</v>
+      </c>
+      <c r="H219">
+        <v>0.586</v>
       </c>
       <c r="I219">
-        <v>0.892</v>
+        <v>0.762</v>
       </c>
       <c r="J219">
-        <v>0.953</v>
+        <v>0.738</v>
+      </c>
+      <c r="K219">
+        <v>0.725</v>
+      </c>
+      <c r="L219">
+        <v>0.806</v>
+      </c>
+      <c r="M219">
+        <v>0.796</v>
+      </c>
+      <c r="N219">
+        <v>0.698</v>
+      </c>
+      <c r="O219">
+        <v>0.802</v>
+      </c>
+      <c r="R219">
+        <v>0.783</v>
+      </c>
+      <c r="S219">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="T219">
+        <v>0.74</v>
       </c>
     </row>
     <row r="220" spans="1:20">
@@ -8129,34 +8009,28 @@
         <v>24</v>
       </c>
       <c r="C220" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="E220">
+        <v>0.985</v>
+      </c>
+      <c r="F220">
+        <v>0.997</v>
+      </c>
+      <c r="G220">
+        <v>0.957</v>
+      </c>
+      <c r="H220">
+        <v>0.922</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>0.976</v>
       </c>
       <c r="J220">
-        <v>1</v>
-      </c>
-      <c r="O220">
-        <v>0.502</v>
-      </c>
-      <c r="P220">
-        <v>0.526</v>
-      </c>
-      <c r="Q220">
-        <v>0.548</v>
-      </c>
-      <c r="R220">
-        <v>0.5659999999999999</v>
-      </c>
-      <c r="S220">
-        <v>0.52</v>
-      </c>
-      <c r="T220">
-        <v>0.442</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="221" spans="1:20">
@@ -8167,25 +8041,28 @@
         <v>24</v>
       </c>
       <c r="C221" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I221">
-        <v>0.875</v>
-      </c>
-      <c r="J221">
-        <v>0.951</v>
+        <v>123</v>
+      </c>
+      <c r="O221">
+        <v>0.838</v>
+      </c>
+      <c r="P221">
+        <v>0.743</v>
+      </c>
+      <c r="Q221">
+        <v>0.748</v>
       </c>
       <c r="R221">
-        <v>0.575</v>
+        <v>0.749</v>
       </c>
       <c r="S221">
-        <v>0.51</v>
+        <v>0.698</v>
       </c>
       <c r="T221">
-        <v>0.64</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="222" spans="1:20">
@@ -8196,16 +8073,28 @@
         <v>24</v>
       </c>
       <c r="C222" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="E222">
+        <v>0.588</v>
+      </c>
+      <c r="F222">
+        <v>0.597</v>
+      </c>
+      <c r="G222">
+        <v>0.73</v>
+      </c>
+      <c r="H222">
+        <v>0.6</v>
       </c>
       <c r="I222">
-        <v>0.9429999999999999</v>
+        <v>0.752</v>
       </c>
       <c r="J222">
-        <v>0.822</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="223" spans="1:20">
@@ -8216,28 +8105,28 @@
         <v>24</v>
       </c>
       <c r="C223" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O223">
-        <v>0.571</v>
+        <v>0.988</v>
       </c>
       <c r="P223">
-        <v>0.529</v>
+        <v>0.985</v>
       </c>
       <c r="Q223">
-        <v>0.537</v>
+        <v>0.976</v>
       </c>
       <c r="R223">
-        <v>0.556</v>
+        <v>0.986</v>
       </c>
       <c r="S223">
-        <v>0.511</v>
+        <v>0.961</v>
       </c>
       <c r="T223">
-        <v>0.629</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="224" spans="1:20">
@@ -8248,16 +8137,28 @@
         <v>24</v>
       </c>
       <c r="C224" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="E224">
+        <v>0.65</v>
+      </c>
+      <c r="F224">
+        <v>0.58</v>
+      </c>
+      <c r="G224">
+        <v>0.743</v>
+      </c>
+      <c r="H224">
+        <v>0.6870000000000001</v>
       </c>
       <c r="I224">
-        <v>0.865</v>
+        <v>0.763</v>
       </c>
       <c r="J224">
-        <v>0.955</v>
+        <v>0.798</v>
       </c>
     </row>
     <row r="225" spans="1:20">
@@ -8268,28 +8169,28 @@
         <v>24</v>
       </c>
       <c r="C225" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="O225">
-        <v>0.709</v>
-      </c>
-      <c r="P225">
-        <v>0.761</v>
-      </c>
-      <c r="Q225">
-        <v>0.749</v>
-      </c>
-      <c r="R225">
-        <v>0.825</v>
-      </c>
-      <c r="S225">
-        <v>0.788</v>
-      </c>
-      <c r="T225">
-        <v>0.787</v>
+        <v>99</v>
+      </c>
+      <c r="E225">
+        <v>0.981</v>
+      </c>
+      <c r="F225">
+        <v>0.923</v>
+      </c>
+      <c r="G225">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="H225">
+        <v>0.9340000000000001</v>
+      </c>
+      <c r="I225">
+        <v>0.961</v>
+      </c>
+      <c r="J225">
+        <v>0.96</v>
       </c>
     </row>
     <row r="226" spans="1:20">
@@ -8300,16 +8201,43 @@
         <v>24</v>
       </c>
       <c r="C226" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I226">
-        <v>0.865</v>
+        <v>112</v>
       </c>
       <c r="J226">
-        <v>0.993</v>
+        <v>0.708</v>
+      </c>
+      <c r="K226">
+        <v>0.73</v>
+      </c>
+      <c r="L226">
+        <v>0.804</v>
+      </c>
+      <c r="M226">
+        <v>0.774</v>
+      </c>
+      <c r="N226">
+        <v>0.751</v>
+      </c>
+      <c r="O226">
+        <v>0.758</v>
+      </c>
+      <c r="P226">
+        <v>0.697</v>
+      </c>
+      <c r="Q226">
+        <v>0.736</v>
+      </c>
+      <c r="R226">
+        <v>0.764</v>
+      </c>
+      <c r="S226">
+        <v>0.715</v>
+      </c>
+      <c r="T226">
+        <v>0.637</v>
       </c>
     </row>
     <row r="227" spans="1:20">
@@ -8320,16 +8248,28 @@
         <v>24</v>
       </c>
       <c r="C227" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I227">
-        <v>0.8159999999999999</v>
-      </c>
-      <c r="J227">
-        <v>0.86</v>
+        <v>125</v>
+      </c>
+      <c r="O227">
+        <v>0.729</v>
+      </c>
+      <c r="P227">
+        <v>0.747</v>
+      </c>
+      <c r="Q227">
+        <v>0.77</v>
+      </c>
+      <c r="R227">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="S227">
+        <v>0.778</v>
+      </c>
+      <c r="T227">
+        <v>0.763</v>
       </c>
     </row>
     <row r="228" spans="1:20">
@@ -8340,28 +8280,28 @@
         <v>24</v>
       </c>
       <c r="C228" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="O228">
-        <v>0.594</v>
+        <v>0.982</v>
       </c>
       <c r="P228">
-        <v>0.53</v>
+        <v>0.976</v>
       </c>
       <c r="Q228">
-        <v>0.517</v>
+        <v>0.969</v>
       </c>
       <c r="R228">
-        <v>0.592</v>
+        <v>0.978</v>
       </c>
       <c r="S228">
-        <v>0.492</v>
+        <v>0.956</v>
       </c>
       <c r="T228">
-        <v>0.416</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="229" spans="1:20">
@@ -8372,28 +8312,22 @@
         <v>24</v>
       </c>
       <c r="C229" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="O229">
-        <v>1</v>
-      </c>
-      <c r="P229">
-        <v>0.997</v>
-      </c>
-      <c r="Q229">
-        <v>0.997</v>
-      </c>
-      <c r="R229">
-        <v>0.997</v>
-      </c>
-      <c r="S229">
-        <v>0.994</v>
-      </c>
-      <c r="T229">
-        <v>0.998</v>
+        <v>100</v>
+      </c>
+      <c r="G229">
+        <v>0.787</v>
+      </c>
+      <c r="H229">
+        <v>0.737</v>
+      </c>
+      <c r="I229">
+        <v>0.647</v>
+      </c>
+      <c r="J229">
+        <v>0.761</v>
       </c>
     </row>
     <row r="230" spans="1:20">
@@ -8404,28 +8338,43 @@
         <v>24</v>
       </c>
       <c r="C230" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>126</v>
+        <v>101</v>
+      </c>
+      <c r="E230">
+        <v>0.977</v>
+      </c>
+      <c r="F230">
+        <v>0.957</v>
+      </c>
+      <c r="G230">
+        <v>0.944</v>
+      </c>
+      <c r="H230">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="I230">
+        <v>0.966</v>
+      </c>
+      <c r="J230">
+        <v>0.971</v>
+      </c>
+      <c r="K230">
+        <v>0.96</v>
+      </c>
+      <c r="L230">
+        <v>0.969</v>
+      </c>
+      <c r="M230">
+        <v>0.97</v>
+      </c>
+      <c r="N230">
+        <v>0.955</v>
       </c>
       <c r="O230">
-        <v>0.727</v>
-      </c>
-      <c r="P230">
-        <v>0.772</v>
-      </c>
-      <c r="Q230">
-        <v>0.758</v>
-      </c>
-      <c r="R230">
-        <v>0.827</v>
-      </c>
-      <c r="S230">
-        <v>0.781</v>
-      </c>
-      <c r="T230">
-        <v>0.851</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="231" spans="1:20">
@@ -8436,16 +8385,25 @@
         <v>24</v>
       </c>
       <c r="C231" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I231">
-        <v>0.509</v>
-      </c>
-      <c r="J231">
-        <v>0.8139999999999999</v>
+        <v>113</v>
+      </c>
+      <c r="K231">
+        <v>0.731</v>
+      </c>
+      <c r="L231">
+        <v>0.794</v>
+      </c>
+      <c r="M231">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="N231">
+        <v>0.774</v>
+      </c>
+      <c r="O231">
+        <v>0.787</v>
       </c>
     </row>
     <row r="232" spans="1:20">
@@ -8456,16 +8414,31 @@
         <v>24</v>
       </c>
       <c r="C232" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I232">
-        <v>0.783</v>
+        <v>114</v>
       </c>
       <c r="J232">
-        <v>0.832</v>
+        <v>0.433</v>
+      </c>
+      <c r="O232">
+        <v>0.469</v>
+      </c>
+      <c r="P232">
+        <v>0.506</v>
+      </c>
+      <c r="Q232">
+        <v>0.539</v>
+      </c>
+      <c r="R232">
+        <v>0.519</v>
+      </c>
+      <c r="S232">
+        <v>0.484</v>
+      </c>
+      <c r="T232">
+        <v>0.654</v>
       </c>
     </row>
     <row r="233" spans="1:20">
@@ -8476,28 +8449,28 @@
         <v>24</v>
       </c>
       <c r="C233" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O233">
-        <v>0.582</v>
-      </c>
-      <c r="P233">
-        <v>0.605</v>
-      </c>
-      <c r="Q233">
-        <v>0.632</v>
-      </c>
-      <c r="R233">
-        <v>0.599</v>
-      </c>
-      <c r="S233">
-        <v>0.515</v>
-      </c>
-      <c r="T233">
-        <v>0.67</v>
+        <v>102</v>
+      </c>
+      <c r="E233">
+        <v>0.572</v>
+      </c>
+      <c r="F233">
+        <v>0.579</v>
+      </c>
+      <c r="G233">
+        <v>0.745</v>
+      </c>
+      <c r="H233">
+        <v>0.592</v>
+      </c>
+      <c r="I233">
+        <v>0.726</v>
+      </c>
+      <c r="J233">
+        <v>0.762</v>
       </c>
     </row>
     <row r="234" spans="1:20">
@@ -8508,16 +8481,43 @@
         <v>24</v>
       </c>
       <c r="C234" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I234">
-        <v>0.805</v>
+        <v>115</v>
       </c>
       <c r="J234">
-        <v>0.963</v>
+        <v>0.665</v>
+      </c>
+      <c r="K234">
+        <v>0.72</v>
+      </c>
+      <c r="L234">
+        <v>0.783</v>
+      </c>
+      <c r="M234">
+        <v>0.799</v>
+      </c>
+      <c r="N234">
+        <v>0.845</v>
+      </c>
+      <c r="O234">
+        <v>0.77</v>
+      </c>
+      <c r="P234">
+        <v>0.742</v>
+      </c>
+      <c r="Q234">
+        <v>0.743</v>
+      </c>
+      <c r="R234">
+        <v>0.72</v>
+      </c>
+      <c r="S234">
+        <v>0.697</v>
+      </c>
+      <c r="T234">
+        <v>0.573</v>
       </c>
     </row>
     <row r="235" spans="1:20">
@@ -8528,28 +8528,28 @@
         <v>24</v>
       </c>
       <c r="C235" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="J235">
+        <v>0.673</v>
+      </c>
+      <c r="K235">
+        <v>0.723</v>
+      </c>
+      <c r="L235">
+        <v>0.847</v>
+      </c>
+      <c r="M235">
+        <v>0.835</v>
+      </c>
+      <c r="N235">
+        <v>0.886</v>
       </c>
       <c r="O235">
-        <v>0.586</v>
-      </c>
-      <c r="P235">
-        <v>0.523</v>
-      </c>
-      <c r="Q235">
-        <v>0.523</v>
-      </c>
-      <c r="R235">
-        <v>0.525</v>
-      </c>
-      <c r="S235">
-        <v>0.498</v>
-      </c>
-      <c r="T235">
-        <v>0.38</v>
+        <v>0.727</v>
       </c>
     </row>
   </sheetData>
